--- a/1_calculation_scripts/1_6_nitrogen/results/mie_results_vle_fluid.xlsx
+++ b/1_calculation_scripts/1_6_nitrogen/results/mie_results_vle_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.7313459034918602</v>
       </c>
       <c r="D2">
-        <v>130.1658659627251</v>
+        <v>130.1658659627246</v>
       </c>
       <c r="E2">
-        <v>4230204.038486085</v>
+        <v>4230204.038485992</v>
       </c>
       <c r="F2">
-        <v>11763.39826282669</v>
+        <v>11763.39826282652</v>
       </c>
       <c r="G2">
         <v>3.65889023899925</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>46.07724638623657</v>
       </c>
@@ -585,10 +597,16 @@
         <v>0.1464005520117942</v>
       </c>
       <c r="M2">
+        <v>0.1464004635271225</v>
+      </c>
+      <c r="N2">
         <v>1591.356622393819</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>8.848467167870556E-08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>46.9266132338914</v>
       </c>
@@ -626,59 +644,71 @@
         <v>0.1451197275019543</v>
       </c>
       <c r="M3">
+        <v>0.1451196373806094</v>
+      </c>
+      <c r="N3">
         <v>1504.751973583967</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>9.012134486341734E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>47.77598008154624</v>
+        <v>47.77598008154623</v>
       </c>
       <c r="B4">
-        <v>175.956083212658</v>
+        <v>175.9560832126591</v>
       </c>
       <c r="C4">
-        <v>0.4430669238241076</v>
+        <v>0.4430669238241105</v>
       </c>
       <c r="D4">
-        <v>35230.58286840546</v>
+        <v>35230.58286840547</v>
       </c>
       <c r="E4">
-        <v>7578.884698341042</v>
+        <v>7578.88469834104</v>
       </c>
       <c r="F4">
-        <v>7181.75762589687</v>
+        <v>7181.757625896873</v>
       </c>
       <c r="G4">
-        <v>30.19894907436804</v>
+        <v>30.19894907436798</v>
       </c>
       <c r="H4">
-        <v>131.429713385716</v>
+        <v>131.4297133857162</v>
       </c>
       <c r="I4">
-        <v>1.538811748246277E-09</v>
+        <v>1.538811748246273E-09</v>
       </c>
       <c r="J4">
-        <v>5.951489282414209E-10</v>
+        <v>5.95148928241419E-10</v>
       </c>
       <c r="K4">
-        <v>0.0007907892971988474</v>
+        <v>0.0007907892971988481</v>
       </c>
       <c r="L4">
         <v>0.1439952185879398</v>
       </c>
       <c r="M4">
-        <v>1439.805859019148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.1439951267329982</v>
+      </c>
+      <c r="N4">
+        <v>1439.805859019152</v>
+      </c>
+      <c r="O4">
+        <v>9.185494162803467E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>48.62534692920108</v>
+        <v>48.62534692920106</v>
       </c>
       <c r="B5">
-        <v>244.9849202610299</v>
+        <v>244.9849202610334</v>
       </c>
       <c r="C5">
-        <v>0.6061593962771475</v>
+        <v>0.6061593962771563</v>
       </c>
       <c r="D5">
         <v>34904.55519933138</v>
@@ -687,39 +717,45 @@
         <v>7469.579074857814</v>
       </c>
       <c r="F5">
-        <v>7065.426854643773</v>
+        <v>7065.426854643772</v>
       </c>
       <c r="G5">
-        <v>31.47946771765593</v>
+        <v>31.47946771765607</v>
       </c>
       <c r="H5">
-        <v>125.6972899378278</v>
+        <v>125.697289937828</v>
       </c>
       <c r="I5">
-        <v>1.569397583504711E-09</v>
+        <v>1.569397583504713E-09</v>
       </c>
       <c r="J5">
         <v>6.127175336439666E-10</v>
       </c>
       <c r="K5">
-        <v>0.0007892505682736868</v>
+        <v>0.0007892505682736865</v>
       </c>
       <c r="L5">
-        <v>0.1430165981537584</v>
+        <v>0.1430165981537583</v>
       </c>
       <c r="M5">
-        <v>1389.208120255933</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.1430165044624167</v>
+      </c>
+      <c r="N5">
+        <v>1389.208120255932</v>
+      </c>
+      <c r="O5">
+        <v>9.369134157055713E-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>49.47471377685592</v>
+        <v>49.47471377685589</v>
       </c>
       <c r="B6">
         <v>335.7227810671617</v>
       </c>
       <c r="C6">
-        <v>0.8164922474074208</v>
+        <v>0.8164922474074211</v>
       </c>
       <c r="D6">
         <v>34592.9691346344</v>
@@ -728,60 +764,66 @@
         <v>7365.173549267781</v>
       </c>
       <c r="F6">
-        <v>6954.006317577228</v>
+        <v>6954.006317577227</v>
       </c>
       <c r="G6">
-        <v>32.02565628472887</v>
+        <v>32.02565628472892</v>
       </c>
       <c r="H6">
-        <v>119.8502815424019</v>
+        <v>119.850281542402</v>
       </c>
       <c r="I6">
         <v>1.600145501275851E-09</v>
       </c>
       <c r="J6">
-        <v>6.310736183094667E-10</v>
+        <v>6.310736183094659E-10</v>
       </c>
       <c r="K6">
-        <v>0.0007852881169967394</v>
+        <v>0.0007852881169967388</v>
       </c>
       <c r="L6">
         <v>0.1421722002373898</v>
       </c>
       <c r="M6">
+        <v>0.1421721046006185</v>
+      </c>
+      <c r="N6">
         <v>1348.600090092382</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>9.56367712715042E-08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>50.32408062451076</v>
+        <v>50.32408062451073</v>
       </c>
       <c r="B7">
-        <v>453.3163486394393</v>
+        <v>453.3163486394416</v>
       </c>
       <c r="C7">
-        <v>1.084013418777669</v>
+        <v>1.084013418777675</v>
       </c>
       <c r="D7">
-        <v>34294.76921554403</v>
+        <v>34294.76921554404</v>
       </c>
       <c r="E7">
-        <v>7265.715434317395</v>
+        <v>7265.715434317402</v>
       </c>
       <c r="F7">
-        <v>6847.545315709852</v>
+        <v>6847.545315709859</v>
       </c>
       <c r="G7">
-        <v>31.99958939787783</v>
+        <v>31.99958939787801</v>
       </c>
       <c r="H7">
-        <v>113.991574089422</v>
+        <v>113.9915740894222</v>
       </c>
       <c r="I7">
         <v>1.631125533950266E-09</v>
       </c>
       <c r="J7">
-        <v>6.502792821860135E-10</v>
+        <v>6.502792821860134E-10</v>
       </c>
       <c r="K7">
         <v>0.0007788394090801329</v>
@@ -790,39 +832,45 @@
         <v>0.1414493553709555</v>
       </c>
       <c r="M7">
-        <v>1315.203839481452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.1414492576731422</v>
+      </c>
+      <c r="N7">
+        <v>1315.20383948145</v>
+      </c>
+      <c r="O7">
+        <v>9.769781336350628E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>51.17344747216559</v>
+        <v>51.17344747216556</v>
       </c>
       <c r="B8">
-        <v>603.7244779760724</v>
+        <v>603.7244779760731</v>
       </c>
       <c r="C8">
-        <v>1.419938755018874</v>
+        <v>1.419938755018877</v>
       </c>
       <c r="D8">
         <v>34008.9827714788</v>
       </c>
       <c r="E8">
-        <v>7171.172877229061</v>
+        <v>7171.172877229073</v>
       </c>
       <c r="F8">
-        <v>6746.01420808008</v>
+        <v>6746.014208080091</v>
       </c>
       <c r="G8">
-        <v>31.53697383167467</v>
+        <v>31.53697383167469</v>
       </c>
       <c r="H8">
-        <v>108.2038319142289</v>
+        <v>108.203831914229</v>
       </c>
       <c r="I8">
         <v>1.662408833917017E-09</v>
       </c>
       <c r="J8">
-        <v>6.703999867651871E-10</v>
+        <v>6.70399986765187E-10</v>
       </c>
       <c r="K8">
         <v>0.0007698639888558059</v>
@@ -831,472 +879,544 @@
         <v>0.1408346816863696</v>
       </c>
       <c r="M8">
+        <v>0.1408345818049559</v>
+      </c>
+      <c r="N8">
         <v>1287.155137206398</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>9.98814136636089E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>52.02281431982043</v>
+        <v>52.02281431982039</v>
       </c>
       <c r="B9">
-        <v>793.7753684898202</v>
+        <v>793.7753684897988</v>
       </c>
       <c r="C9">
-        <v>1.836788301214602</v>
+        <v>1.836788301214554</v>
       </c>
       <c r="D9">
         <v>33734.71238542561</v>
       </c>
       <c r="E9">
-        <v>7081.451007970707</v>
+        <v>7081.451007970714</v>
       </c>
       <c r="F9">
-        <v>6649.320561322515</v>
+        <v>6649.320561322518</v>
       </c>
       <c r="G9">
-        <v>30.7502061471453</v>
+        <v>30.75020614714531</v>
       </c>
       <c r="H9">
-        <v>102.5518882222781</v>
+        <v>102.5518882222782</v>
       </c>
       <c r="I9">
-        <v>1.694067492929333E-09</v>
+        <v>1.694067492929338E-09</v>
       </c>
       <c r="J9">
         <v>6.915046588386316E-10</v>
       </c>
       <c r="K9">
-        <v>0.0007583484623243959</v>
+        <v>0.0007583484623243945</v>
       </c>
       <c r="L9">
-        <v>0.1403144160498434</v>
+        <v>0.1403144160498433</v>
       </c>
       <c r="M9">
-        <v>1263.150303635312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.1403143138549574</v>
+      </c>
+      <c r="N9">
+        <v>1263.15030363531</v>
+      </c>
+      <c r="O9">
+        <v>1.021948859966551E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>52.87218116747526</v>
+        <v>52.87218116747523</v>
       </c>
       <c r="B10">
-        <v>1031.220061966072</v>
+        <v>1031.220061966065</v>
       </c>
       <c r="C10">
-        <v>2.34841294522401</v>
+        <v>2.348412945223996</v>
       </c>
       <c r="D10">
-        <v>33471.12912114232</v>
+        <v>33471.12912114234</v>
       </c>
       <c r="E10">
-        <v>6996.406051996821</v>
+        <v>6996.406051996825</v>
       </c>
       <c r="F10">
-        <v>6557.323261530193</v>
+        <v>6557.323261530199</v>
       </c>
       <c r="G10">
-        <v>29.73135457156895</v>
+        <v>29.73135457156907</v>
       </c>
       <c r="H10">
-        <v>97.08513378875158</v>
+        <v>97.08513378875192</v>
       </c>
       <c r="I10">
-        <v>1.726174421206244E-09</v>
+        <v>1.726174421206243E-09</v>
       </c>
       <c r="J10">
-        <v>7.136657788886484E-10</v>
+        <v>7.136657788886482E-10</v>
       </c>
       <c r="K10">
-        <v>0.0007443127446229594</v>
+        <v>0.0007443127446229603</v>
       </c>
       <c r="L10">
         <v>0.139874763655598</v>
       </c>
       <c r="M10">
-        <v>1242.246595980561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.1398746590096837</v>
+      </c>
+      <c r="N10">
+        <v>1242.246595980562</v>
+      </c>
+      <c r="O10">
+        <v>1.046459143008645E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>53.7215480151301</v>
+        <v>53.72154801513005</v>
       </c>
       <c r="B11">
-        <v>1324.781899090886</v>
+        <v>1324.781899090868</v>
       </c>
       <c r="C11">
-        <v>2.970012054953176</v>
+        <v>2.970012054953139</v>
       </c>
       <c r="D11">
-        <v>33217.46642589322</v>
+        <v>33217.46642589323</v>
       </c>
       <c r="E11">
-        <v>6915.857454904441</v>
+        <v>6915.857454904448</v>
       </c>
       <c r="F11">
-        <v>6469.844635996506</v>
+        <v>6469.844635996516</v>
       </c>
       <c r="G11">
-        <v>28.55497334991478</v>
+        <v>28.55497334991496</v>
       </c>
       <c r="H11">
-        <v>91.83980406010042</v>
+        <v>91.83980406010082</v>
       </c>
       <c r="I11">
-        <v>1.758803284015664E-09</v>
+        <v>1.758803284015663E-09</v>
       </c>
       <c r="J11">
-        <v>7.369594502765828E-10</v>
+        <v>7.36959450276581E-10</v>
       </c>
       <c r="K11">
-        <v>0.0007278171007366807</v>
+        <v>0.0007278171007366821</v>
       </c>
       <c r="L11">
-        <v>0.1395022425187367</v>
+        <v>0.1395022425187369</v>
       </c>
       <c r="M11">
+        <v>0.1395021352761853</v>
+      </c>
+      <c r="N11">
         <v>1223.743322451817</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>1.072425515640768E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>54.57091486278494</v>
+        <v>54.57091486278489</v>
       </c>
       <c r="B12">
-        <v>1684.201647420497</v>
+        <v>1684.201647420458</v>
       </c>
       <c r="C12">
-        <v>3.718142877853093</v>
+        <v>3.71814287785301</v>
       </c>
       <c r="D12">
-        <v>32973.01463333823</v>
+        <v>32973.01463333824</v>
       </c>
       <c r="E12">
-        <v>6839.598135401769</v>
+        <v>6839.598135401776</v>
       </c>
       <c r="F12">
-        <v>6386.680701410337</v>
+        <v>6386.680701410345</v>
       </c>
       <c r="G12">
-        <v>27.28069296818614</v>
+        <v>27.28069296818634</v>
       </c>
       <c r="H12">
-        <v>86.84110078072401</v>
+        <v>86.84110078072437</v>
       </c>
       <c r="I12">
-        <v>1.7920284928932E-09</v>
+        <v>1.792028492893199E-09</v>
       </c>
       <c r="J12">
-        <v>7.614654450869327E-10</v>
+        <v>7.61465445086931E-10</v>
       </c>
       <c r="K12">
-        <v>0.000708969190693422</v>
+        <v>0.0007089691906934233</v>
       </c>
       <c r="L12">
         <v>0.1391840006800662</v>
       </c>
       <c r="M12">
+        <v>0.1391838906868511</v>
+      </c>
+      <c r="N12">
         <v>1207.107949637793</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>1.099932151160045E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>55.42028171043977</v>
+        <v>55.42028171043972</v>
       </c>
       <c r="B13">
-        <v>2120.278082676326</v>
+        <v>2120.278082676278</v>
       </c>
       <c r="C13">
-        <v>4.610722540760295</v>
+        <v>4.610722540760196</v>
       </c>
       <c r="D13">
-        <v>32737.11600058153</v>
+        <v>32737.11600058154</v>
       </c>
       <c r="E13">
-        <v>6767.403024821698</v>
+        <v>6767.403024821707</v>
       </c>
       <c r="F13">
-        <v>6307.609696938231</v>
+        <v>6307.609696938238</v>
       </c>
       <c r="G13">
-        <v>25.955556684982</v>
+        <v>25.95555668498211</v>
       </c>
       <c r="H13">
-        <v>82.10511206142837</v>
+        <v>82.10511206142864</v>
       </c>
       <c r="I13">
-        <v>1.825925248303489E-09</v>
+        <v>1.82592524830349E-09</v>
       </c>
       <c r="J13">
-        <v>7.872672222214926E-10</v>
+        <v>7.872672222214917E-10</v>
       </c>
       <c r="K13">
-        <v>0.0006879300312064311</v>
+        <v>0.0006879300312064318</v>
       </c>
       <c r="L13">
         <v>0.1389080877159931</v>
       </c>
       <c r="M13">
+        <v>0.1389079748093153</v>
+      </c>
+      <c r="N13">
         <v>1191.928507799482</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>1.129066777680442E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>56.26964855809462</v>
+        <v>56.26964855809455</v>
       </c>
       <c r="B14">
-        <v>2644.9038659438</v>
+        <v>2644.903865943751</v>
       </c>
       <c r="C14">
-        <v>5.667023524634493</v>
+        <v>5.667023524634396</v>
       </c>
       <c r="D14">
-        <v>32509.16022146691</v>
+        <v>32509.16022146693</v>
       </c>
       <c r="E14">
-        <v>6699.036072716809</v>
+        <v>6699.036072716816</v>
       </c>
       <c r="F14">
-        <v>6232.399081950559</v>
+        <v>6232.399081950569</v>
       </c>
       <c r="G14">
-        <v>24.61609368807824</v>
+        <v>24.61609368807834</v>
       </c>
       <c r="H14">
-        <v>77.64051537950766</v>
+        <v>77.64051537950802</v>
       </c>
       <c r="I14">
-        <v>1.860569630416737E-09</v>
+        <v>1.860569630416733E-09</v>
       </c>
       <c r="J14">
-        <v>8.144519131388581E-10</v>
+        <v>8.144519131388561E-10</v>
       </c>
       <c r="K14">
-        <v>0.0006649175812745854</v>
+        <v>0.0006649175812745878</v>
       </c>
       <c r="L14">
         <v>0.1386636672630679</v>
       </c>
       <c r="M14">
-        <v>1177.881978855008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.1386635512710137</v>
+      </c>
+      <c r="N14">
+        <v>1177.881978855009</v>
+      </c>
+      <c r="O14">
+        <v>1.159920542855233E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>57.11901540574945</v>
+        <v>57.11901540574938</v>
       </c>
       <c r="B15">
-        <v>3271.096613965591</v>
+        <v>3271.096613965594</v>
       </c>
       <c r="C15">
-        <v>6.907663500645755</v>
+        <v>6.907663500645771</v>
       </c>
       <c r="D15">
-        <v>32288.58036517967</v>
+        <v>32288.58036517968</v>
       </c>
       <c r="E15">
-        <v>6634.255904498536</v>
+        <v>6634.255904498543</v>
       </c>
       <c r="F15">
-        <v>6160.811184587112</v>
+        <v>6160.811184587117</v>
       </c>
       <c r="G15">
-        <v>23.29013312019434</v>
+        <v>23.29013312019449</v>
       </c>
       <c r="H15">
-        <v>73.45006255723655</v>
+        <v>73.45006255723679</v>
       </c>
       <c r="I15">
-        <v>1.896038734718962E-09</v>
+        <v>1.896038734718964E-09</v>
       </c>
       <c r="J15">
-        <v>8.431102705253071E-10</v>
+        <v>8.431102705253053E-10</v>
       </c>
       <c r="K15">
-        <v>0.0006402066427585261</v>
+        <v>0.0006402066427585279</v>
       </c>
       <c r="L15">
         <v>0.1384411628081497</v>
       </c>
       <c r="M15">
-        <v>1164.712712653341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.138441043549367</v>
+      </c>
+      <c r="N15">
+        <v>1164.712712653339</v>
+      </c>
+      <c r="O15">
+        <v>1.19258782675346E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>57.96838225340429</v>
+        <v>57.96838225340422</v>
       </c>
       <c r="B16">
-        <v>4013.025109942624</v>
+        <v>4013.025109942508</v>
       </c>
       <c r="C16">
-        <v>8.354590408901595</v>
+        <v>8.354590408901363</v>
       </c>
       <c r="D16">
-        <v>32074.84919524231</v>
+        <v>32074.84919524233</v>
       </c>
       <c r="E16">
-        <v>6572.820313239698</v>
+        <v>6572.820313239701</v>
       </c>
       <c r="F16">
-        <v>6092.607683520111</v>
+        <v>6092.607683520115</v>
       </c>
       <c r="G16">
-        <v>21.99837240646795</v>
+        <v>21.99837240646802</v>
       </c>
       <c r="H16">
-        <v>69.53185552323556</v>
+        <v>69.53185552323592</v>
       </c>
       <c r="I16">
-        <v>1.932410849367536E-09</v>
+        <v>1.932410849367533E-09</v>
       </c>
       <c r="J16">
-        <v>8.733365751897471E-10</v>
+        <v>8.733365751897435E-10</v>
       </c>
       <c r="K16">
-        <v>0.0006141240216594037</v>
+        <v>0.000614124021659406</v>
       </c>
       <c r="L16">
         <v>0.1382323343291882</v>
       </c>
       <c r="M16">
-        <v>1152.21729940846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.1382322116125884</v>
+      </c>
+      <c r="N16">
+        <v>1152.217299408462</v>
+      </c>
+      <c r="O16">
+        <v>1.227165997860685E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>58.81774910105913</v>
+        <v>58.81774910105905</v>
       </c>
       <c r="B17">
-        <v>4886.030649169576</v>
+        <v>4886.030649169505</v>
       </c>
       <c r="C17">
-        <v>10.03106364421969</v>
+        <v>10.03106364421955</v>
       </c>
       <c r="D17">
-        <v>31867.4758292135</v>
+        <v>31867.47582921352</v>
       </c>
       <c r="E17">
-        <v>6514.489757262408</v>
+        <v>6514.489757262404</v>
       </c>
       <c r="F17">
-        <v>6027.55309477571</v>
+        <v>6027.553094775707</v>
       </c>
       <c r="G17">
-        <v>20.75571887421503</v>
+        <v>20.75571887421522</v>
       </c>
       <c r="H17">
-        <v>65.88042773190294</v>
+        <v>65.88042773190331</v>
       </c>
       <c r="I17">
-        <v>1.969765671513032E-09</v>
+        <v>1.969765671513028E-09</v>
       </c>
       <c r="J17">
-        <v>9.052284966257343E-10</v>
+        <v>9.052284966257305E-10</v>
       </c>
       <c r="K17">
-        <v>0.0005870384561371645</v>
+        <v>0.0005870384561371671</v>
       </c>
       <c r="L17">
-        <v>0.1380302881204869</v>
+        <v>0.138030288120487</v>
       </c>
       <c r="M17">
+        <v>0.1380301617449762</v>
+      </c>
+      <c r="N17">
         <v>1140.233684611253</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>1.263755107567815E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>59.66711594871396</v>
+        <v>59.66711594871389</v>
       </c>
       <c r="B18">
-        <v>5906.643557975536</v>
+        <v>5906.643557975447</v>
       </c>
       <c r="C18">
-        <v>11.96163218840298</v>
+        <v>11.96163218840282</v>
       </c>
       <c r="D18">
-        <v>31666.00270393488</v>
+        <v>31666.0027039349</v>
       </c>
       <c r="E18">
-        <v>6459.030020713473</v>
+        <v>6459.030020713484</v>
       </c>
       <c r="F18">
-        <v>5965.417421049155</v>
+        <v>5965.417421049166</v>
       </c>
       <c r="G18">
-        <v>19.57242653206985</v>
+        <v>19.57242653206993</v>
       </c>
       <c r="H18">
-        <v>62.4876494526861</v>
+        <v>62.48764945268635</v>
       </c>
       <c r="I18">
-        <v>2.008184560207948E-09</v>
+        <v>2.008184560207944E-09</v>
       </c>
       <c r="J18">
-        <v>9.388869030046867E-10</v>
+        <v>9.388869030046826E-10</v>
       </c>
       <c r="K18">
-        <v>0.0005593456310986167</v>
+        <v>0.0005593456310986201</v>
       </c>
       <c r="L18">
-        <v>0.1378294260818512</v>
+        <v>0.1378294260818513</v>
       </c>
       <c r="M18">
-        <v>1128.63311797575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.1378292958360994</v>
+      </c>
+      <c r="N18">
+        <v>1128.633117975751</v>
+      </c>
+      <c r="O18">
+        <v>1.302457519094019E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>60.5164827963688</v>
+        <v>60.51648279636872</v>
       </c>
       <c r="B19">
-        <v>7092.594965884317</v>
+        <v>7092.59496588421</v>
       </c>
       <c r="C19">
-        <v>14.17211049780165</v>
+        <v>14.17211049780145</v>
       </c>
       <c r="D19">
-        <v>31470.00281512009</v>
+        <v>31470.00281512011</v>
       </c>
       <c r="E19">
-        <v>6406.214177978992</v>
+        <v>6406.214177978994</v>
       </c>
       <c r="F19">
         <v>5905.97810458785</v>
       </c>
       <c r="G19">
-        <v>18.45505084504948</v>
+        <v>18.45505084504952</v>
       </c>
       <c r="H19">
-        <v>59.34347652214783</v>
+        <v>59.34347652214802</v>
       </c>
       <c r="I19">
-        <v>2.047750823988344E-09</v>
+        <v>2.047750823988342E-09</v>
       </c>
       <c r="J19">
-        <v>9.744156168813425E-10</v>
+        <v>9.744156168813394E-10</v>
       </c>
       <c r="K19">
-        <v>0.0005314495129623545</v>
+        <v>0.0005314495129623572</v>
       </c>
       <c r="L19">
         <v>0.1376253437482531</v>
       </c>
       <c r="M19">
-        <v>1117.314022499484</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.1376252094105064</v>
+      </c>
+      <c r="N19">
+        <v>1117.314022499485</v>
+      </c>
+      <c r="O19">
+        <v>1.343377467576566E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>61.36584964402363</v>
+        <v>61.36584964402354</v>
       </c>
       <c r="B20">
-        <v>8462.823949483922</v>
+        <v>8462.823949483798</v>
       </c>
       <c r="C20">
-        <v>16.6895529201881</v>
+        <v>16.68955292018788</v>
       </c>
       <c r="D20">
-        <v>31279.07720352878</v>
+        <v>31279.0772035288</v>
       </c>
       <c r="E20">
         <v>6355.823985906884</v>
@@ -1305,3346 +1425,3838 @@
         <v>5849.021407818715</v>
       </c>
       <c r="G20">
-        <v>17.4072440132479</v>
+        <v>17.40724401324791</v>
       </c>
       <c r="H20">
-        <v>56.43656219051901</v>
+        <v>56.43656219051918</v>
       </c>
       <c r="I20">
-        <v>2.088550041727859E-09</v>
+        <v>2.088550041727855E-09</v>
       </c>
       <c r="J20">
-        <v>1.011921113626715E-09</v>
+        <v>1.01192111362671E-09</v>
       </c>
       <c r="K20">
-        <v>0.0005037420242343691</v>
+        <v>0.0005037420242343723</v>
       </c>
       <c r="L20">
-        <v>0.1374146882807436</v>
+        <v>0.1374146882807435</v>
       </c>
       <c r="M20">
-        <v>1106.197183239995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.1374145496186886</v>
+      </c>
+      <c r="N20">
+        <v>1106.197183239997</v>
+      </c>
+      <c r="O20">
+        <v>1.386620549251408E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>62.21521649167848</v>
+        <v>62.21521649167838</v>
       </c>
       <c r="B21">
-        <v>10037.48020180332</v>
+        <v>10037.48020180293</v>
       </c>
       <c r="C21">
-        <v>19.54222737713302</v>
+        <v>19.54222737713228</v>
       </c>
       <c r="D21">
-        <v>31092.85266298759</v>
+        <v>31092.85266298761</v>
       </c>
       <c r="E21">
-        <v>6307.650811327949</v>
+        <v>6307.650811327962</v>
       </c>
       <c r="F21">
-        <v>5794.343329399696</v>
+        <v>5794.34332939971</v>
       </c>
       <c r="G21">
-        <v>16.43041209805607</v>
+        <v>16.43041209805638</v>
       </c>
       <c r="H21">
-        <v>53.75475085818371</v>
+        <v>53.7547508581842</v>
       </c>
       <c r="I21">
-        <v>2.130670415910137E-09</v>
+        <v>2.130670415910131E-09</v>
       </c>
       <c r="J21">
-        <v>1.051512160570312E-09</v>
+        <v>1.051512160570306E-09</v>
       </c>
       <c r="K21">
-        <v>0.0004765835046589973</v>
+        <v>0.0004765835046590009</v>
       </c>
       <c r="L21">
         <v>0.1371949884845282</v>
       </c>
       <c r="M21">
+        <v>0.1371948452552143</v>
+      </c>
+      <c r="N21">
         <v>1095.221859590847</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>1.432293138939736E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>63.06458333933332</v>
+        <v>63.06458333933321</v>
       </c>
       <c r="B22">
-        <v>11837.92241266821</v>
+        <v>11837.92241266793</v>
       </c>
       <c r="C22">
-        <v>22.75958900806688</v>
+        <v>22.75958900806636</v>
       </c>
       <c r="D22">
-        <v>30910.97964817098</v>
+        <v>30910.979648171</v>
       </c>
       <c r="E22">
-        <v>6261.496185882118</v>
+        <v>6261.496185882127</v>
       </c>
       <c r="F22">
-        <v>5741.750147870843</v>
+        <v>5741.750147870852</v>
       </c>
       <c r="G22">
-        <v>15.5242536831224</v>
+        <v>15.52425368312249</v>
       </c>
       <c r="H22">
-        <v>51.28547113226931</v>
+        <v>51.28547113226961</v>
       </c>
       <c r="I22">
-        <v>2.174203158035007E-09</v>
+        <v>2.174203158035004E-09</v>
       </c>
       <c r="J22">
-        <v>1.093299396038823E-09</v>
+        <v>1.093299396038816E-09</v>
       </c>
       <c r="K22">
-        <v>0.0004502863290177001</v>
+        <v>0.0004502863290177033</v>
       </c>
       <c r="L22">
         <v>0.1369644687172346</v>
       </c>
       <c r="M22">
-        <v>1084.342560447996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.1369643206670609</v>
+      </c>
+      <c r="N22">
+        <v>1084.342560447997</v>
+      </c>
+      <c r="O22">
+        <v>1.480501736759034E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>63.91395018698815</v>
+        <v>63.91395018698803</v>
       </c>
       <c r="B23">
-        <v>13886.71257314997</v>
+        <v>13886.71257314966</v>
       </c>
       <c r="C23">
-        <v>26.37225443072905</v>
+        <v>26.3722544307285</v>
       </c>
       <c r="D23">
-        <v>30733.13036238857</v>
+        <v>30733.13036238859</v>
       </c>
       <c r="E23">
-        <v>6217.172066002023</v>
+        <v>6217.172066002033</v>
       </c>
       <c r="F23">
-        <v>5691.058670904056</v>
+        <v>5691.058670904065</v>
       </c>
       <c r="G23">
-        <v>14.68719785278006</v>
+        <v>14.68719785278004</v>
       </c>
       <c r="H23">
-        <v>49.01604398793846</v>
+        <v>49.01604398793866</v>
       </c>
       <c r="I23">
-        <v>2.219242906458805E-09</v>
+        <v>2.219242906458802E-09</v>
       </c>
       <c r="J23">
-        <v>1.137394848918636E-09</v>
+        <v>1.137394848918629E-09</v>
       </c>
       <c r="K23">
-        <v>0.0004251034775629692</v>
+        <v>0.0004251034775629724</v>
       </c>
       <c r="L23">
-        <v>0.1367218574669487</v>
+        <v>0.1367218574669488</v>
       </c>
       <c r="M23">
-        <v>1073.526312597788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.1367217043317241</v>
+      </c>
+      <c r="N23">
+        <v>1073.52631259779</v>
+      </c>
+      <c r="O23">
+        <v>1.531352246882715E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>64.76331703464298</v>
+        <v>64.76331703464287</v>
       </c>
       <c r="B24">
-        <v>16207.60644057517</v>
+        <v>16207.60644057499</v>
       </c>
       <c r="C24">
-        <v>30.41197723051236</v>
+        <v>30.41197723051208</v>
       </c>
       <c r="D24">
-        <v>30558.99700768454</v>
+        <v>30558.99700768456</v>
       </c>
       <c r="E24">
         <v>6174.500863240984</v>
       </c>
       <c r="F24">
-        <v>5642.09625546287</v>
+        <v>5642.096255462873</v>
       </c>
       <c r="G24">
-        <v>13.91675728811825</v>
+        <v>13.91675728811832</v>
       </c>
       <c r="H24">
-        <v>46.93392006619955</v>
+        <v>46.9339200661998</v>
       </c>
       <c r="I24">
-        <v>2.265888177567198E-09</v>
+        <v>2.26588817756719E-09</v>
       </c>
       <c r="J24">
-        <v>1.183911401027141E-09</v>
+        <v>1.183911401027134E-09</v>
       </c>
       <c r="K24">
-        <v>0.0004012229451091276</v>
+        <v>0.000401222945109131</v>
       </c>
       <c r="L24">
         <v>0.1364661996828989</v>
       </c>
       <c r="M24">
-        <v>1062.750313466445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.1364660411879796</v>
+      </c>
+      <c r="N24">
+        <v>1062.750313466447</v>
+      </c>
+      <c r="O24">
+        <v>1.584949193272406E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>65.61268388229783</v>
+        <v>65.6126838822977</v>
       </c>
       <c r="B25">
-        <v>18825.54041947426</v>
+        <v>18825.54041947416</v>
       </c>
       <c r="C25">
-        <v>34.91162524905913</v>
+        <v>34.91162524905903</v>
       </c>
       <c r="D25">
-        <v>30388.29018137709</v>
+        <v>30388.29018137712</v>
       </c>
       <c r="E25">
-        <v>6133.315298985194</v>
+        <v>6133.315298985193</v>
       </c>
       <c r="F25">
-        <v>5594.700653014595</v>
+        <v>5594.700653014599</v>
       </c>
       <c r="G25">
-        <v>13.20981033305756</v>
+        <v>13.20981033305759</v>
       </c>
       <c r="H25">
-        <v>45.02685839594778</v>
+        <v>45.02685839594805</v>
       </c>
       <c r="I25">
-        <v>2.314241851788446E-09</v>
+        <v>2.314241851788433E-09</v>
       </c>
       <c r="J25">
-        <v>1.232962196420875E-09</v>
+        <v>1.232962196420866E-09</v>
       </c>
       <c r="K25">
-        <v>0.0003787678827064944</v>
+        <v>0.000378767882706498</v>
       </c>
       <c r="L25">
-        <v>0.1361966799494824</v>
+        <v>0.1361966799494825</v>
       </c>
       <c r="M25">
-        <v>1051.999899300052</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.1361965158099945</v>
+      </c>
+      <c r="N25">
+        <v>1051.999899300056</v>
+      </c>
+      <c r="O25">
+        <v>1.641394879644441E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>66.46205072995267</v>
+        <v>66.46205072995254</v>
       </c>
       <c r="B26">
-        <v>21766.61512829568</v>
+        <v>21766.61512829544</v>
       </c>
       <c r="C26">
-        <v>39.90516020113451</v>
+        <v>39.90516020113414</v>
       </c>
       <c r="D26">
-        <v>30220.73740478071</v>
+        <v>30220.73740478074</v>
       </c>
       <c r="E26">
-        <v>6093.458127918837</v>
+        <v>6093.458127918846</v>
       </c>
       <c r="F26">
-        <v>5548.719724245145</v>
+        <v>5548.71972424516</v>
       </c>
       <c r="G26">
         <v>12.56282404068238</v>
       </c>
       <c r="H26">
-        <v>43.28305716631046</v>
+        <v>43.2830571663107</v>
       </c>
       <c r="I26">
-        <v>2.364411696578619E-09</v>
+        <v>2.364411696578606E-09</v>
       </c>
       <c r="J26">
-        <v>1.28466000374972E-09</v>
+        <v>1.284660003749709E-09</v>
       </c>
       <c r="K26">
-        <v>0.0003578015401429012</v>
+        <v>0.0003578015401429048</v>
       </c>
       <c r="L26">
-        <v>0.1359124616121773</v>
+        <v>0.1359124616121774</v>
       </c>
       <c r="M26">
-        <v>1041.266785110306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.1359122915333271</v>
+      </c>
+      <c r="N26">
+        <v>1041.26678511031</v>
+      </c>
+      <c r="O26">
+        <v>1.700788503288521E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>67.3114175776075</v>
+        <v>67.31141757760737</v>
       </c>
       <c r="B27">
-        <v>25058.07593178768</v>
+        <v>25058.07593178712</v>
       </c>
       <c r="C27">
-        <v>45.42762010906302</v>
+        <v>45.42762010906209</v>
       </c>
       <c r="D27">
-        <v>30056.08177128927</v>
+        <v>30056.0817712893</v>
       </c>
       <c r="E27">
-        <v>6054.781766316858</v>
+        <v>6054.781766316853</v>
       </c>
       <c r="F27">
-        <v>5504.011059413545</v>
+        <v>5504.01105941354</v>
       </c>
       <c r="G27">
-        <v>11.97202851442113</v>
+        <v>11.97202851442124</v>
       </c>
       <c r="H27">
-        <v>41.69124563946175</v>
+        <v>41.69124563946199</v>
       </c>
       <c r="I27">
-        <v>2.416510929152414E-09</v>
+        <v>2.416510929152409E-09</v>
       </c>
       <c r="J27">
-        <v>1.339116539822598E-09</v>
+        <v>1.33911653982259E-09</v>
       </c>
       <c r="K27">
-        <v>0.0003383355782705885</v>
+        <v>0.0003383355782705911</v>
       </c>
       <c r="L27">
         <v>0.135612545231017</v>
       </c>
       <c r="M27">
-        <v>1030.547547736974</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.1356123689084936</v>
+      </c>
+      <c r="N27">
+        <v>1030.547547736975</v>
+      </c>
+      <c r="O27">
+        <v>1.763225234795693E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>68.16078442526234</v>
+        <v>68.16078442526221</v>
       </c>
       <c r="B28">
-        <v>28728.29072491003</v>
+        <v>28728.29072490919</v>
       </c>
       <c r="C28">
-        <v>51.51510500672968</v>
+        <v>51.51510500672824</v>
       </c>
       <c r="D28">
-        <v>29894.0807022747</v>
+        <v>29894.08070227472</v>
       </c>
       <c r="E28">
-        <v>6017.147854200927</v>
+        <v>6017.147854200932</v>
       </c>
       <c r="F28">
-        <v>5460.441533427147</v>
+        <v>5460.441533427153</v>
       </c>
       <c r="G28">
-        <v>11.43355132913803</v>
+        <v>11.43355132913798</v>
       </c>
       <c r="H28">
-        <v>40.24074490590411</v>
+        <v>40.24074490590419</v>
       </c>
       <c r="I28">
-        <v>2.470658822399197E-09</v>
+        <v>2.470658822399189E-09</v>
       </c>
       <c r="J28">
-        <v>1.396441764604775E-09</v>
+        <v>1.396441764604768E-09</v>
       </c>
       <c r="K28">
-        <v>0.0003203401847572201</v>
+        <v>0.0003203401847572221</v>
       </c>
       <c r="L28">
         <v>0.1352956483955834</v>
       </c>
       <c r="M28">
-        <v>1019.842331408988</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.1352954655160556</v>
+      </c>
+      <c r="N28">
+        <v>1019.842331408991</v>
+      </c>
+      <c r="O28">
+        <v>1.828795278031657E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>69.01015127291717</v>
+        <v>69.01015127291703</v>
       </c>
       <c r="B29">
-        <v>32806.7252562328</v>
+        <v>32806.72525623185</v>
       </c>
       <c r="C29">
-        <v>58.20476633097973</v>
+        <v>58.20476633097812</v>
       </c>
       <c r="D29">
-        <v>29734.50480039428</v>
+        <v>29734.5048003943</v>
       </c>
       <c r="E29">
-        <v>5980.42677447658</v>
+        <v>5980.426774476589</v>
       </c>
       <c r="F29">
-        <v>5417.886818786277</v>
+        <v>5417.886818786287</v>
       </c>
       <c r="G29">
-        <v>10.94351945918305</v>
+        <v>10.94351945918304</v>
       </c>
       <c r="H29">
-        <v>38.92150395120368</v>
+        <v>38.9215039512038</v>
       </c>
       <c r="I29">
-        <v>2.526981358122756E-09</v>
+        <v>2.526981358122745E-09</v>
       </c>
       <c r="J29">
-        <v>1.456743159831033E-09</v>
+        <v>1.456743159831022E-09</v>
       </c>
       <c r="K29">
-        <v>0.0003037545890988574</v>
+        <v>0.0003037545890988601</v>
       </c>
       <c r="L29">
-        <v>0.1349601080245286</v>
+        <v>0.1349601080245287</v>
       </c>
       <c r="M29">
-        <v>1009.153758696703</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.134959918266236</v>
+      </c>
+      <c r="N29">
+        <v>1009.153758696705</v>
+      </c>
+      <c r="O29">
+        <v>1.897582926806648E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>69.85951812057201</v>
+        <v>69.85951812057186</v>
       </c>
       <c r="B30">
-        <v>37323.91627743362</v>
+        <v>37323.91627743233</v>
       </c>
       <c r="C30">
-        <v>65.53480038803707</v>
+        <v>65.5348003880349</v>
       </c>
       <c r="D30">
-        <v>29577.13679091515</v>
+        <v>29577.13679091518</v>
       </c>
       <c r="E30">
-        <v>5944.497147233803</v>
+        <v>5944.497147233805</v>
       </c>
       <c r="F30">
-        <v>5376.23087459955</v>
+        <v>5376.230874599551</v>
       </c>
       <c r="G30">
-        <v>10.4981349499665</v>
+        <v>10.49813494996655</v>
       </c>
       <c r="H30">
-        <v>37.72411642320632</v>
+        <v>37.72411642320649</v>
       </c>
       <c r="I30">
-        <v>2.585611932484264E-09</v>
+        <v>2.585611932484255E-09</v>
       </c>
       <c r="J30">
-        <v>1.520125005198341E-09</v>
+        <v>1.520125005198331E-09</v>
       </c>
       <c r="K30">
-        <v>0.0002884969126799675</v>
+        <v>0.0002884969126799697</v>
       </c>
       <c r="L30">
         <v>0.134603805746333</v>
       </c>
       <c r="M30">
-        <v>998.4860305873675</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.1346036087797694</v>
+      </c>
+      <c r="N30">
+        <v>998.4860305873692</v>
+      </c>
+      <c r="O30">
+        <v>1.969665636471896E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>70.70888496822685</v>
+        <v>70.7088849682267</v>
       </c>
       <c r="B31">
-        <v>42311.44280113169</v>
+        <v>42311.44280113039</v>
       </c>
       <c r="C31">
-        <v>73.54444625698774</v>
+        <v>73.54444625698559</v>
       </c>
       <c r="D31">
-        <v>29421.77054257206</v>
+        <v>29421.77054257209</v>
       </c>
       <c r="E31">
-        <v>5909.245313313896</v>
+        <v>5909.24531331391</v>
       </c>
       <c r="F31">
-        <v>5335.365425782617</v>
+        <v>5335.36542578263</v>
       </c>
       <c r="G31">
-        <v>10.09372953691408</v>
+        <v>10.0937295369141</v>
       </c>
       <c r="H31">
-        <v>36.63982255374887</v>
+        <v>36.63982255374905</v>
       </c>
       <c r="I31">
-        <v>2.646692119322358E-09</v>
+        <v>2.646692119322348E-09</v>
       </c>
       <c r="J31">
-        <v>1.58668766759726E-09</v>
+        <v>1.586687667597247E-09</v>
       </c>
       <c r="K31">
-        <v>0.0002744726851754545</v>
+        <v>0.000274472685175457</v>
       </c>
       <c r="L31">
         <v>0.1342241167134935</v>
       </c>
       <c r="M31">
-        <v>987.8441989283812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.1342239122021805</v>
+      </c>
+      <c r="N31">
+        <v>987.8441989283838</v>
+      </c>
+      <c r="O31">
+        <v>2.045113129996263E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>71.55825181588169</v>
+        <v>71.55825181588153</v>
       </c>
       <c r="B32">
-        <v>47801.89574231025</v>
+        <v>47801.89574230918</v>
       </c>
       <c r="C32">
-        <v>82.2739884720667</v>
+        <v>82.273988472065</v>
       </c>
       <c r="D32">
-        <v>29268.21016028551</v>
+        <v>29268.21016028554</v>
       </c>
       <c r="E32">
-        <v>5874.564817894714</v>
+        <v>5874.564817894713</v>
       </c>
       <c r="F32">
-        <v>5295.189443196088</v>
+        <v>5295.189443196089</v>
       </c>
       <c r="G32">
-        <v>9.726802527852159</v>
+        <v>9.72680252785222</v>
       </c>
       <c r="H32">
-        <v>35.66049988741753</v>
+        <v>35.66049988741769</v>
       </c>
       <c r="I32">
-        <v>2.710372497885895E-09</v>
+        <v>2.710372497885874E-09</v>
       </c>
       <c r="J32">
-        <v>1.65652691996183E-09</v>
+        <v>1.656526919961815E-09</v>
       </c>
       <c r="K32">
-        <v>0.0002615817187716093</v>
+        <v>0.0002615817187716119</v>
       </c>
       <c r="L32">
-        <v>0.1338178821126675</v>
+        <v>0.1338178821126676</v>
       </c>
       <c r="M32">
-        <v>977.2335935888959</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.1338176697140117</v>
+      </c>
+      <c r="N32">
+        <v>977.2335935888996</v>
+      </c>
+      <c r="O32">
+        <v>2.123986558846766E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>72.40761866353652</v>
+        <v>72.40761866353635</v>
       </c>
       <c r="B33">
-        <v>53828.84620952823</v>
+        <v>53828.84620952685</v>
       </c>
       <c r="C33">
-        <v>91.7647648112759</v>
+        <v>91.76476481127371</v>
       </c>
       <c r="D33">
-        <v>29116.26914279336</v>
+        <v>29116.26914279339</v>
       </c>
       <c r="E33">
-        <v>5840.355902118416</v>
+        <v>5840.355902118414</v>
       </c>
       <c r="F33">
-        <v>5255.608632746979</v>
+        <v>5255.608632746978</v>
       </c>
       <c r="G33">
-        <v>9.394045507455058</v>
+        <v>9.394045507455148</v>
       </c>
       <c r="H33">
-        <v>34.77864578881816</v>
+        <v>34.77864578881828</v>
       </c>
       <c r="I33">
-        <v>2.776813552458391E-09</v>
+        <v>2.776813552458379E-09</v>
       </c>
       <c r="J33">
-        <v>1.729733306980035E-09</v>
+        <v>1.729733306980022E-09</v>
       </c>
       <c r="K33">
-        <v>0.0002497233077327733</v>
+        <v>0.0002497233077327755</v>
       </c>
       <c r="L33">
-        <v>0.1333814055781951</v>
+        <v>0.1333814055781952</v>
       </c>
       <c r="M33">
-        <v>966.659385965999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.1333811849444212</v>
+      </c>
+      <c r="N33">
+        <v>966.6593859660001</v>
+      </c>
+      <c r="O33">
+        <v>2.20633773921375E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>73.25698551119136</v>
+        <v>73.25698551119119</v>
       </c>
       <c r="B34">
-        <v>60426.8127013772</v>
+        <v>60426.81270137648</v>
       </c>
       <c r="C34">
-        <v>102.0591795112787</v>
+        <v>102.0591795112776</v>
       </c>
       <c r="D34">
-        <v>28965.76959889818</v>
+        <v>28965.76959889821</v>
       </c>
       <c r="E34">
-        <v>5806.525008579813</v>
+        <v>5806.525008579818</v>
       </c>
       <c r="F34">
-        <v>5216.534939271123</v>
+        <v>5216.53493927113</v>
       </c>
       <c r="G34">
-        <v>9.092356780699648</v>
+        <v>9.092356780699683</v>
       </c>
       <c r="H34">
-        <v>33.98735412562087</v>
+        <v>33.98735412562102</v>
       </c>
       <c r="I34">
-        <v>2.846186652396349E-09</v>
+        <v>2.846186652396329E-09</v>
       </c>
       <c r="J34">
-        <v>1.806391575048079E-09</v>
+        <v>1.806391575048063E-09</v>
       </c>
       <c r="K34">
-        <v>0.0002387999003130233</v>
+        <v>0.0002387999003130257</v>
       </c>
       <c r="L34">
-        <v>0.1329104736070595</v>
+        <v>0.1329104736070597</v>
       </c>
       <c r="M34">
-        <v>956.1262702104838</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.1329102443862114</v>
+      </c>
+      <c r="N34">
+        <v>956.1262702104872</v>
+      </c>
+      <c r="O34">
+        <v>2.292208483490746E-07</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>74.10635235884621</v>
+        <v>74.10635235884602</v>
       </c>
       <c r="B35">
-        <v>67631.22745172317</v>
+        <v>67631.22745172125</v>
       </c>
       <c r="C35">
-        <v>113.2007222284158</v>
+        <v>113.2007222284128</v>
       </c>
       <c r="D35">
-        <v>28816.54151661424</v>
+        <v>28816.54151661428</v>
       </c>
       <c r="E35">
-        <v>5772.984304723218</v>
+        <v>5772.984304723214</v>
       </c>
       <c r="F35">
-        <v>5177.886069245631</v>
+        <v>5177.88606924563</v>
       </c>
       <c r="G35">
-        <v>8.818847931976585</v>
+        <v>8.818847931976638</v>
       </c>
       <c r="H35">
-        <v>33.28028804404361</v>
+        <v>33.28028804404372</v>
       </c>
       <c r="I35">
-        <v>2.918675122265333E-09</v>
+        <v>2.918675122265315E-09</v>
       </c>
       <c r="J35">
-        <v>1.886580183430629E-09</v>
+        <v>1.886580183430609E-09</v>
       </c>
       <c r="K35">
-        <v>0.0002287194838595919</v>
+        <v>0.0002287194838595942</v>
       </c>
       <c r="L35">
-        <v>0.1324003998701341</v>
+        <v>0.1324003998701342</v>
       </c>
       <c r="M35">
-        <v>945.6382438759501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.1324001617071297</v>
+      </c>
+      <c r="N35">
+        <v>945.6382438759524</v>
+      </c>
+      <c r="O35">
+        <v>2.381630045754631E-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>74.95571920650104</v>
+        <v>74.95571920650086</v>
       </c>
       <c r="B36">
-        <v>75478.40215466125</v>
+        <v>75478.40215465953</v>
       </c>
       <c r="C36">
-        <v>125.2339930739466</v>
+        <v>125.2339930739439</v>
       </c>
       <c r="D36">
-        <v>28668.42208001806</v>
+        <v>28668.42208001809</v>
       </c>
       <c r="E36">
         <v>5739.651226786483</v>
       </c>
       <c r="F36">
-        <v>5139.585034975242</v>
+        <v>5139.585034975244</v>
       </c>
       <c r="G36">
-        <v>8.570844424200095</v>
+        <v>8.570844424200132</v>
       </c>
       <c r="H36">
-        <v>32.65165035396523</v>
+        <v>32.65165035396534</v>
       </c>
       <c r="I36">
-        <v>2.994475413062219E-09</v>
+        <v>2.994475413062205E-09</v>
       </c>
       <c r="J36">
-        <v>1.97037091259539E-09</v>
+        <v>1.970370912595373E-09</v>
       </c>
       <c r="K36">
-        <v>0.0002193969536411324</v>
+        <v>0.0002193969536411342</v>
       </c>
       <c r="L36">
-        <v>0.1318460930359542</v>
+        <v>0.1318460930359543</v>
       </c>
       <c r="M36">
-        <v>935.1984705771671</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.1318458455736845</v>
+      </c>
+      <c r="N36">
+        <v>935.1984705771691</v>
+      </c>
+      <c r="O36">
+        <v>2.474622698001734E-07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>75.80508605415588</v>
+        <v>75.80508605415569</v>
       </c>
       <c r="B37">
-        <v>84005.49328709548</v>
+        <v>84005.49328709354</v>
       </c>
       <c r="C37">
-        <v>138.2047340689141</v>
+        <v>138.2047340689111</v>
       </c>
       <c r="D37">
-        <v>28521.25502907238</v>
+        <v>28521.2550290724</v>
       </c>
       <c r="E37">
-        <v>5706.448045818852</v>
+        <v>5706.448045818855</v>
       </c>
       <c r="F37">
-        <v>5101.559721790835</v>
+        <v>5101.559721790839</v>
       </c>
       <c r="G37">
-        <v>8.345881785663204</v>
+        <v>8.345881785663195</v>
       </c>
       <c r="H37">
-        <v>32.09615271108142</v>
+        <v>32.0961527110815</v>
       </c>
       <c r="I37">
-        <v>3.07379838698336E-09</v>
+        <v>3.073798386983348E-09</v>
       </c>
       <c r="J37">
-        <v>2.057828584141813E-09</v>
+        <v>2.057828584141797E-09</v>
       </c>
       <c r="K37">
-        <v>0.0002107547242180068</v>
+        <v>0.0002107547242180083</v>
       </c>
       <c r="L37">
         <v>0.1312421474439452</v>
       </c>
       <c r="M37">
-        <v>924.8092085771593</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.1312418903244001</v>
+      </c>
+      <c r="N37">
+        <v>924.8092085771615</v>
+      </c>
+      <c r="O37">
+        <v>2.571195451270548E-07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>76.65445290181071</v>
+        <v>76.65445290181053</v>
       </c>
       <c r="B38">
-        <v>93250.46723404332</v>
+        <v>93250.46723404185</v>
       </c>
       <c r="C38">
-        <v>152.1598673917937</v>
+        <v>152.1598673917916</v>
       </c>
       <c r="D38">
-        <v>28374.8900581099</v>
+        <v>28374.89005810994</v>
       </c>
       <c r="E38">
-        <v>5673.301456427814</v>
+        <v>5673.301456427823</v>
       </c>
       <c r="F38">
-        <v>5063.742478935207</v>
+        <v>5063.74247893522</v>
       </c>
       <c r="G38">
-        <v>8.141698620476843</v>
+        <v>8.141698620476971</v>
       </c>
       <c r="H38">
-        <v>31.60898451312151</v>
+        <v>31.6089845131217</v>
       </c>
       <c r="I38">
-        <v>3.156870729868694E-09</v>
+        <v>3.156870729868672E-09</v>
       </c>
       <c r="J38">
-        <v>2.149010904692779E-09</v>
+        <v>2.149010904692759E-09</v>
       </c>
       <c r="K38">
-        <v>0.0002027228081414607</v>
+        <v>0.0002027228081414623</v>
       </c>
       <c r="L38">
-        <v>0.1305829557989573</v>
+        <v>0.1305829557989575</v>
       </c>
       <c r="M38">
-        <v>914.471790870113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.1305826886643643</v>
+      </c>
+      <c r="N38">
+        <v>914.4717908701152</v>
+      </c>
+      <c r="O38">
+        <v>2.671345932631326E-07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>77.50381974946555</v>
+        <v>77.50381974946535</v>
       </c>
       <c r="B39">
-        <v>103252.0654093575</v>
+        <v>103252.065409357</v>
       </c>
       <c r="C39">
-        <v>167.1475408312144</v>
+        <v>167.147540831214</v>
       </c>
       <c r="D39">
-        <v>28229.18224903567</v>
+        <v>28229.18224903571</v>
       </c>
       <c r="E39">
-        <v>5640.142188235299</v>
+        <v>5640.142188235304</v>
       </c>
       <c r="F39">
-        <v>5026.069734146706</v>
+        <v>5026.069734146715</v>
       </c>
       <c r="G39">
-        <v>7.956227421405338</v>
+        <v>7.956227421405349</v>
       </c>
       <c r="H39">
-        <v>31.18578220700745</v>
+        <v>31.18578220700753</v>
       </c>
       <c r="I39">
-        <v>3.243936507354823E-09</v>
+        <v>3.24393650735479E-09</v>
       </c>
       <c r="J39">
-        <v>2.243968443644132E-09</v>
+        <v>2.243968443644108E-09</v>
       </c>
       <c r="K39">
-        <v>0.0001952385441598246</v>
+        <v>0.0001952385441598265</v>
       </c>
       <c r="L39">
-        <v>0.1298628431296055</v>
+        <v>0.1298628431296057</v>
       </c>
       <c r="M39">
-        <v>904.1866441492896</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1298625656235632</v>
+      </c>
+      <c r="N39">
+        <v>904.1866441492939</v>
+      </c>
+      <c r="O39">
+        <v>2.775060425469593E-07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>78.35318659712038</v>
+        <v>78.35318659712019</v>
       </c>
       <c r="B40">
-        <v>114049.769553108</v>
+        <v>114049.7695531028</v>
       </c>
       <c r="C40">
-        <v>183.2171809083431</v>
+        <v>183.2171809083347</v>
       </c>
       <c r="D40">
-        <v>28083.99153563989</v>
+        <v>28083.99153563993</v>
       </c>
       <c r="E40">
-        <v>5606.904639504311</v>
+        <v>5606.904639504313</v>
       </c>
       <c r="F40">
-        <v>4988.481631444013</v>
+        <v>4988.481631444016</v>
       </c>
       <c r="G40">
-        <v>7.787583953220262</v>
+        <v>7.787583953220263</v>
       </c>
       <c r="H40">
-        <v>30.82259952597252</v>
+        <v>30.82259952597254</v>
       </c>
       <c r="I40">
-        <v>3.335258882947112E-09</v>
+        <v>3.335258882947094E-09</v>
       </c>
       <c r="J40">
-        <v>2.342744751876028E-09</v>
+        <v>2.342744751876007E-09</v>
       </c>
       <c r="K40">
-        <v>0.0001882461145659144</v>
+        <v>0.0001882461145659158</v>
       </c>
       <c r="L40">
-        <v>0.1290762216331859</v>
+        <v>0.129076221633186</v>
       </c>
       <c r="M40">
-        <v>893.9533359200821</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1290759334017783</v>
+      </c>
+      <c r="N40">
+        <v>893.953335920084</v>
+      </c>
+      <c r="O40">
+        <v>2.882314076460188E-07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>79.20255344477522</v>
+        <v>79.20255344477502</v>
       </c>
       <c r="B41">
-        <v>125683.7673765743</v>
+        <v>125683.7673765716</v>
       </c>
       <c r="C41">
-        <v>200.4195542004398</v>
+        <v>200.4195542004359</v>
       </c>
       <c r="D41">
-        <v>27939.18219571052</v>
+        <v>27939.18219571056</v>
       </c>
       <c r="E41">
-        <v>5573.526532002385</v>
+        <v>5573.526532002399</v>
       </c>
       <c r="F41">
-        <v>4950.921691234386</v>
+        <v>4950.921691234402</v>
       </c>
       <c r="G41">
-        <v>7.634055802897408</v>
+        <v>7.634055802897501</v>
       </c>
       <c r="H41">
-        <v>30.51587903315649</v>
+        <v>30.51587903315657</v>
       </c>
       <c r="I41">
-        <v>3.431122018719813E-09</v>
+        <v>3.431122018719785E-09</v>
       </c>
       <c r="J41">
-        <v>2.445376625545591E-09</v>
+        <v>2.445376625545566E-09</v>
       </c>
       <c r="K41">
-        <v>0.0001816959534904749</v>
+        <v>0.0001816959534904765</v>
       </c>
       <c r="L41">
-        <v>0.128217766673595</v>
+        <v>0.1282177666735954</v>
       </c>
       <c r="M41">
-        <v>883.7706408378513</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.1282174673664685</v>
+      </c>
+      <c r="N41">
+        <v>883.7706408378534</v>
+      </c>
+      <c r="O41">
+        <v>2.993071268693662E-07</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>80.05192029243007</v>
+        <v>80.05192029242984</v>
       </c>
       <c r="B42">
-        <v>138194.9187172194</v>
+        <v>138194.9187172153</v>
       </c>
       <c r="C42">
-        <v>218.8068374810454</v>
+        <v>218.8068374810393</v>
       </c>
       <c r="D42">
-        <v>27794.62236790042</v>
+        <v>27794.62236790046</v>
       </c>
       <c r="E42">
-        <v>5539.948585870782</v>
+        <v>5539.948585870792</v>
       </c>
       <c r="F42">
-        <v>4913.336491585099</v>
+        <v>4913.336491585113</v>
       </c>
       <c r="G42">
-        <v>7.494090553648801</v>
+        <v>7.494090553648904</v>
       </c>
       <c r="H42">
-        <v>30.26242523507599</v>
+        <v>30.2624252350761</v>
       </c>
       <c r="I42">
-        <v>3.531833182230468E-09</v>
+        <v>3.53183318223043E-09</v>
       </c>
       <c r="J42">
-        <v>2.551894516036961E-09</v>
+        <v>2.551894516036932E-09</v>
       </c>
       <c r="K42">
-        <v>0.0001755441167398191</v>
+        <v>0.0001755441167398209</v>
       </c>
       <c r="L42">
-        <v>0.1272826148588392</v>
+        <v>0.1272826148588395</v>
       </c>
       <c r="M42">
-        <v>873.6366190456022</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.1272823041302239</v>
+      </c>
+      <c r="N42">
+        <v>873.6366190456055</v>
+      </c>
+      <c r="O42">
+        <v>3.107286156501994E-07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>80.90128714008489</v>
+        <v>80.90128714008468</v>
       </c>
       <c r="B43">
-        <v>151624.7223592396</v>
+        <v>151624.7223592395</v>
       </c>
       <c r="C43">
-        <v>238.4326973952263</v>
+        <v>238.432697395227</v>
       </c>
       <c r="D43">
-        <v>27650.18359054043</v>
+        <v>27650.18359054047</v>
       </c>
       <c r="E43">
-        <v>5506.114213045572</v>
+        <v>5506.114213045579</v>
       </c>
       <c r="F43">
-        <v>4875.675369291514</v>
+        <v>4875.675369291517</v>
       </c>
       <c r="G43">
-        <v>7.366283927476419</v>
+        <v>7.36628392747642</v>
       </c>
       <c r="H43">
-        <v>30.05937943962696</v>
+        <v>30.05937943962699</v>
       </c>
       <c r="I43">
-        <v>3.637725086557408E-09</v>
+        <v>3.637725086557391E-09</v>
       </c>
       <c r="J43">
-        <v>2.662323084178572E-09</v>
+        <v>2.662323084178545E-09</v>
       </c>
       <c r="K43">
-        <v>0.0001697516594280408</v>
+        <v>0.0001697516594280419</v>
       </c>
       <c r="L43">
-        <v>0.1262665852912346</v>
+        <v>0.1262665852912348</v>
       </c>
       <c r="M43">
-        <v>863.5487008112731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.1262662628008995</v>
+      </c>
+      <c r="N43">
+        <v>863.5487008112748</v>
+      </c>
+      <c r="O43">
+        <v>3.224903353574681E-07</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>81.75065398773972</v>
+        <v>81.75065398773951</v>
       </c>
       <c r="B44">
-        <v>166015.2836710655</v>
+        <v>166015.2836710616</v>
       </c>
       <c r="C44">
-        <v>259.3523805138278</v>
+        <v>259.3523805138221</v>
       </c>
       <c r="D44">
-        <v>27505.74035980131</v>
+        <v>27505.74035980134</v>
       </c>
       <c r="E44">
-        <v>5471.969227611546</v>
+        <v>5471.969227611556</v>
       </c>
       <c r="F44">
-        <v>4837.890139227447</v>
+        <v>4837.890139227456</v>
       </c>
       <c r="G44">
-        <v>7.249368150957007</v>
+        <v>7.249368150956989</v>
       </c>
       <c r="H44">
-        <v>29.90419646456531</v>
+        <v>29.90419646456533</v>
       </c>
       <c r="I44">
-        <v>3.74915849421592E-09</v>
+        <v>3.749158494215898E-09</v>
       </c>
       <c r="J44">
-        <v>2.77668189407702E-09</v>
+        <v>2.776681894076991E-09</v>
       </c>
       <c r="K44">
-        <v>0.0001642840495148731</v>
+        <v>0.0001642840495148744</v>
       </c>
       <c r="L44">
-        <v>0.1251664239819339</v>
+        <v>0.1251664239819342</v>
       </c>
       <c r="M44">
-        <v>853.503773094753</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.1251660893960579</v>
+      </c>
+      <c r="N44">
+        <v>853.5037730947554</v>
+      </c>
+      <c r="O44">
+        <v>3.345858762737552E-07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>82.60002083539457</v>
+        <v>82.60002083539435</v>
       </c>
       <c r="B45">
-        <v>181409.2832093364</v>
+        <v>181409.2832093335</v>
       </c>
       <c r="C45">
-        <v>281.622814761174</v>
+        <v>281.6228147611702</v>
       </c>
       <c r="D45">
-        <v>27361.16970479536</v>
+        <v>27361.1697047954</v>
       </c>
       <c r="E45">
-        <v>5437.461571345931</v>
+        <v>5437.461571345942</v>
       </c>
       <c r="F45">
-        <v>4799.934830358252</v>
+        <v>4799.934830358263</v>
       </c>
       <c r="G45">
-        <v>7.142200727413264</v>
+        <v>7.142200727413392</v>
       </c>
       <c r="H45">
-        <v>29.79462325018753</v>
+        <v>29.79462325018763</v>
       </c>
       <c r="I45">
-        <v>3.866525120173857E-09</v>
+        <v>3.866525120173825E-09</v>
       </c>
       <c r="J45">
-        <v>2.894986239476865E-09</v>
+        <v>2.894986239476833E-09</v>
       </c>
       <c r="K45">
-        <v>0.0001591106324070458</v>
+        <v>0.0001591106324070471</v>
       </c>
       <c r="L45">
-        <v>0.1239800681349645</v>
+        <v>0.1239800681349649</v>
       </c>
       <c r="M45">
-        <v>843.4982648044052</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.1239797211269116</v>
+      </c>
+      <c r="N45">
+        <v>843.4982648044067</v>
+      </c>
+      <c r="O45">
+        <v>3.470080532728447E-07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>83.44938768304941</v>
+        <v>83.44938768304918</v>
       </c>
       <c r="B46">
-        <v>197849.9464405047</v>
+        <v>197849.9464404993</v>
       </c>
       <c r="C46">
-        <v>305.3027233912956</v>
+        <v>305.3027233912877</v>
       </c>
       <c r="D46">
-        <v>27216.35077737633</v>
+        <v>27216.35077737637</v>
       </c>
       <c r="E46">
-        <v>5402.541052615376</v>
+        <v>5402.541052615391</v>
       </c>
       <c r="F46">
-        <v>4761.765436722756</v>
+        <v>4761.765436722773</v>
       </c>
       <c r="G46">
-        <v>7.043753742158497</v>
+        <v>7.043753742158552</v>
       </c>
       <c r="H46">
-        <v>29.72867939115327</v>
+        <v>29.72867939115331</v>
       </c>
       <c r="I46">
-        <v>3.990250874386185E-09</v>
+        <v>3.990250874386148E-09</v>
       </c>
       <c r="J46">
-        <v>3.017248093528914E-09</v>
+        <v>3.017248093528879E-09</v>
       </c>
       <c r="K46">
-        <v>0.0001542041529235856</v>
+        <v>0.000154204152923587</v>
       </c>
       <c r="L46">
-        <v>0.1227069207772619</v>
+        <v>0.1227069207772624</v>
       </c>
       <c r="M46">
-        <v>833.5282284382537</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1227065610282499</v>
+      </c>
+      <c r="N46">
+        <v>833.5282284382564</v>
+      </c>
+      <c r="O46">
+        <v>3.597490125114773E-07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>84.29875453070424</v>
+        <v>84.29875453070402</v>
       </c>
       <c r="B47">
-        <v>215381.0147357114</v>
+        <v>215381.0147357036</v>
       </c>
       <c r="C47">
-        <v>330.4527529013731</v>
+        <v>330.4527529013614</v>
       </c>
       <c r="D47">
-        <v>27071.16445454587</v>
+        <v>27071.16445454592</v>
       </c>
       <c r="E47">
-        <v>5367.159096716606</v>
+        <v>5367.159096716613</v>
       </c>
       <c r="F47">
-        <v>4723.339681637495</v>
+        <v>4723.339681637503</v>
       </c>
       <c r="G47">
-        <v>6.953103783371697</v>
+        <v>6.953103783371727</v>
       </c>
       <c r="H47">
         <v>29.70463957461613</v>
       </c>
       <c r="I47">
-        <v>4.12079949033288E-09</v>
+        <v>4.12079949033284E-09</v>
       </c>
       <c r="J47">
-        <v>3.143477171303038E-09</v>
+        <v>3.143477171303003E-09</v>
       </c>
       <c r="K47">
-        <v>0.000149540335164208</v>
+        <v>0.0001495403351642094</v>
       </c>
       <c r="L47">
-        <v>0.1213481169390185</v>
+        <v>0.1213481169390189</v>
       </c>
       <c r="M47">
-        <v>823.5894165612698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.1213477441386716</v>
+      </c>
+      <c r="N47">
+        <v>823.5894165612726</v>
+      </c>
+      <c r="O47">
+        <v>3.728003472572114E-07</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>85.14812137835908</v>
+        <v>85.14812137835885</v>
       </c>
       <c r="B48">
-        <v>234046.7178036156</v>
+        <v>234046.717803614</v>
       </c>
       <c r="C48">
-        <v>357.1356165251361</v>
+        <v>357.1356165251347</v>
       </c>
       <c r="D48">
-        <v>26925.49295150777</v>
+        <v>26925.49295150781</v>
       </c>
       <c r="E48">
-        <v>5331.268505689736</v>
+        <v>5331.268505689746</v>
       </c>
       <c r="F48">
-        <v>4684.616793335868</v>
+        <v>4684.61679333588</v>
       </c>
       <c r="G48">
-        <v>6.869422527026402</v>
+        <v>6.869422527026372</v>
       </c>
       <c r="H48">
-        <v>29.72101789299314</v>
+        <v>29.72101789299307</v>
       </c>
       <c r="I48">
-        <v>4.258676593143643E-09</v>
+        <v>4.2586765931436E-09</v>
       </c>
       <c r="J48">
-        <v>3.273682093355131E-09</v>
+        <v>3.273682093355092E-09</v>
       </c>
       <c r="K48">
-        <v>0.000145097517312148</v>
+        <v>0.0001450975173121493</v>
       </c>
       <c r="L48">
-        <v>0.1199067514198072</v>
+        <v>0.1199067514198075</v>
       </c>
       <c r="M48">
-        <v>813.6773521668625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.1199063652665866</v>
+      </c>
+      <c r="N48">
+        <v>813.6773521668661</v>
+      </c>
+      <c r="O48">
+        <v>3.861532209044855E-07</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>85.99748822601391</v>
+        <v>85.99748822601367</v>
       </c>
       <c r="B49">
-        <v>253891.7477384575</v>
+        <v>253891.7477384491</v>
       </c>
       <c r="C49">
-        <v>385.4162552471709</v>
+        <v>385.4162552471583</v>
       </c>
       <c r="D49">
-        <v>26779.21944353063</v>
+        <v>26779.21944353067</v>
       </c>
       <c r="E49">
-        <v>5294.82322557897</v>
+        <v>5294.823225578979</v>
       </c>
       <c r="F49">
-        <v>4645.557290221713</v>
+        <v>4645.557290221723</v>
       </c>
       <c r="G49">
-        <v>6.791968008262791</v>
+        <v>6.791968008262746</v>
       </c>
       <c r="H49">
-        <v>29.7765539881905</v>
+        <v>29.77655398819039</v>
       </c>
       <c r="I49">
-        <v>4.404434269222101E-09</v>
+        <v>4.404434269222055E-09</v>
       </c>
       <c r="J49">
-        <v>3.407871638162739E-09</v>
+        <v>3.407871638162704E-09</v>
       </c>
       <c r="K49">
-        <v>0.0001408563364773554</v>
+        <v>0.0001408563364773565</v>
       </c>
       <c r="L49">
-        <v>0.1183880279246371</v>
+        <v>0.1183880279246374</v>
       </c>
       <c r="M49">
-        <v>803.7873924296406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.1183876281261423</v>
+      </c>
+      <c r="N49">
+        <v>803.7873924296441</v>
+      </c>
+      <c r="O49">
+        <v>3.997984951544802E-07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>86.84685507366875</v>
+        <v>86.84685507366851</v>
       </c>
       <c r="B50">
-        <v>274961.2348783321</v>
+        <v>274961.2348783275</v>
       </c>
       <c r="C50">
-        <v>415.3620186303886</v>
+        <v>415.3620186303825</v>
       </c>
       <c r="D50">
-        <v>26632.22769488551</v>
+        <v>26632.22769488555</v>
       </c>
       <c r="E50">
-        <v>5257.778119061242</v>
+        <v>5257.778119061258</v>
       </c>
       <c r="F50">
-        <v>4606.122773883721</v>
+        <v>4606.122773883738</v>
       </c>
       <c r="G50">
-        <v>6.720076582064242</v>
+        <v>6.720076582064273</v>
       </c>
       <c r="H50">
-        <v>29.87020097860377</v>
+        <v>29.87020097860373</v>
       </c>
       <c r="I50">
-        <v>4.55867620908608E-09</v>
+        <v>4.558676209086028E-09</v>
       </c>
       <c r="J50">
-        <v>3.546056071266757E-09</v>
+        <v>3.546056071266716E-09</v>
       </c>
       <c r="K50">
-        <v>0.0001367994578302572</v>
+        <v>0.0001367994578302584</v>
       </c>
       <c r="L50">
-        <v>0.1167992843333146</v>
+        <v>0.1167992843333152</v>
       </c>
       <c r="M50">
-        <v>793.9147856993154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.1167988706064538</v>
+      </c>
+      <c r="N50">
+        <v>793.9147856993187</v>
+      </c>
+      <c r="O50">
+        <v>4.137268613969172E-07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>87.69622192132358</v>
+        <v>87.69622192132333</v>
       </c>
       <c r="B51">
-        <v>297300.7256914183</v>
+        <v>297300.7256914086</v>
       </c>
       <c r="C51">
-        <v>447.0428681606459</v>
+        <v>447.0428681606313</v>
       </c>
       <c r="D51">
-        <v>26484.40169322074</v>
+        <v>26484.4016932208</v>
       </c>
       <c r="E51">
-        <v>5220.088741307397</v>
+        <v>5220.088741307407</v>
       </c>
       <c r="F51">
-        <v>4566.275727982249</v>
+        <v>4566.27572798226</v>
       </c>
       <c r="G51">
-        <v>6.653155561755626</v>
+        <v>6.65315556175568</v>
       </c>
       <c r="H51">
-        <v>30.00111511970898</v>
+        <v>30.00111511970895</v>
       </c>
       <c r="I51">
-        <v>4.72206350671385E-09</v>
+        <v>4.722063506713778E-09</v>
       </c>
       <c r="J51">
-        <v>3.688248539460163E-09</v>
+        <v>3.688248539460111E-09</v>
       </c>
       <c r="K51">
-        <v>0.0001329113421122086</v>
+        <v>0.0001329113421122101</v>
       </c>
       <c r="L51">
-        <v>0.1151498537551454</v>
+        <v>0.115149853755146</v>
       </c>
       <c r="M51">
-        <v>784.0547218331687</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.1151494258261726</v>
+      </c>
+      <c r="N51">
+        <v>784.0547218331728</v>
+      </c>
+      <c r="O51">
+        <v>4.279289733693717E-07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>88.54558876897843</v>
+        <v>88.54558876897816</v>
       </c>
       <c r="B52">
-        <v>320956.1629360307</v>
+        <v>320956.1629360204</v>
       </c>
       <c r="C52">
-        <v>480.5316062938439</v>
+        <v>480.5316062938288</v>
       </c>
       <c r="D52">
-        <v>26335.62528782072</v>
+        <v>26335.62528782077</v>
       </c>
       <c r="E52">
-        <v>5181.711116877254</v>
+        <v>5181.711116877266</v>
       </c>
       <c r="F52">
-        <v>4525.979321077449</v>
+        <v>4525.979321077461</v>
       </c>
       <c r="G52">
-        <v>6.590676513636559</v>
+        <v>6.590676513636607</v>
       </c>
       <c r="H52">
-        <v>30.16864715283596</v>
+        <v>30.16864715283588</v>
       </c>
       <c r="I52">
-        <v>4.89532121239397E-09</v>
+        <v>4.895321212393903E-09</v>
       </c>
       <c r="J52">
-        <v>3.834466519297464E-09</v>
+        <v>3.834466519297417E-09</v>
       </c>
       <c r="K52">
-        <v>0.000129178045865991</v>
+        <v>0.0001291780458659922</v>
       </c>
       <c r="L52">
-        <v>0.1134507387836168</v>
+        <v>0.1134507387836173</v>
       </c>
       <c r="M52">
-        <v>774.2023761349013</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.113450296388038</v>
+      </c>
+      <c r="N52">
+        <v>774.2023761349046</v>
+      </c>
+      <c r="O52">
+        <v>4.423955793190096E-07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>89.39495561663327</v>
+        <v>89.394955616633</v>
       </c>
       <c r="B53">
-        <v>345973.8683748511</v>
+        <v>345973.868374844</v>
       </c>
       <c r="C53">
-        <v>515.9041349536471</v>
+        <v>515.9041349536375</v>
       </c>
       <c r="D53">
-        <v>26185.78183027204</v>
+        <v>26185.7818302721</v>
       </c>
       <c r="E53">
-        <v>5142.60151537905</v>
+        <v>5142.601515379062</v>
       </c>
       <c r="F53">
-        <v>4485.197211416768</v>
+        <v>4485.197211416779</v>
       </c>
       <c r="G53">
-        <v>6.532169179093338</v>
+        <v>6.532169179093342</v>
       </c>
       <c r="H53">
-        <v>30.37233530424336</v>
+        <v>30.37233530424331</v>
       </c>
       <c r="I53">
-        <v>5.079245752367226E-09</v>
+        <v>5.079245752367169E-09</v>
       </c>
       <c r="J53">
-        <v>3.984733310494311E-09</v>
+        <v>3.984733310494263E-09</v>
       </c>
       <c r="K53">
-        <v>0.0001255870492210566</v>
+        <v>0.0001255870492210578</v>
       </c>
       <c r="L53">
-        <v>0.1117141059587463</v>
+        <v>0.1117141059587469</v>
       </c>
       <c r="M53">
-        <v>764.3529472774457</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.1117136488410948</v>
+      </c>
+      <c r="N53">
+        <v>764.3529472774488</v>
+      </c>
+      <c r="O53">
+        <v>4.57117652028137E-07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>90.2443224642881</v>
+        <v>90.24432246428783</v>
       </c>
       <c r="B54">
-        <v>372400.5283644247</v>
+        <v>372400.5283644207</v>
       </c>
       <c r="C54">
-        <v>553.2397478839831</v>
+        <v>553.2397478839787</v>
       </c>
       <c r="D54">
-        <v>26034.75381612785</v>
+        <v>26034.75381612789</v>
       </c>
       <c r="E54">
-        <v>5102.716223540825</v>
+        <v>5102.716223540842</v>
       </c>
       <c r="F54">
-        <v>4443.893351635821</v>
+        <v>4443.893351635836</v>
       </c>
       <c r="G54">
-        <v>6.477215991107157</v>
+        <v>6.477215991107092</v>
       </c>
       <c r="H54">
-        <v>30.61189990764374</v>
+        <v>30.61189990764361</v>
       </c>
       <c r="I54">
-        <v>5.274713347980825E-09</v>
+        <v>5.274713347980782E-09</v>
       </c>
       <c r="J54">
-        <v>4.139079566375792E-09</v>
+        <v>4.13907956637575E-09</v>
       </c>
       <c r="K54">
-        <v>0.0001221271066682804</v>
+        <v>0.0001221271066682812</v>
       </c>
       <c r="L54">
-        <v>0.1099526426760504</v>
+        <v>0.1099526426760508</v>
       </c>
       <c r="M54">
-        <v>754.5016896499056</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.1099521705895356</v>
+      </c>
+      <c r="N54">
+        <v>754.5016896499083</v>
+      </c>
+      <c r="O54">
+        <v>4.720865152478679E-07</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>91.09368931194295</v>
+        <v>91.09368931194267</v>
       </c>
       <c r="B55">
-        <v>400283.182689191</v>
+        <v>400283.182689192</v>
       </c>
       <c r="C55">
-        <v>592.621462025959</v>
+        <v>592.6214620259632</v>
       </c>
       <c r="D55">
-        <v>25882.4225262201</v>
+        <v>25882.42252622015</v>
       </c>
       <c r="E55">
-        <v>5062.011311245194</v>
+        <v>5062.011311245204</v>
       </c>
       <c r="F55">
-        <v>4402.03179124841</v>
+        <v>4402.031791248423</v>
       </c>
       <c r="G55">
-        <v>6.425447149611808</v>
+        <v>6.425447149611781</v>
       </c>
       <c r="H55">
-        <v>30.88723963779533</v>
+        <v>30.88723963779521</v>
       </c>
       <c r="I55">
-        <v>5.482689590341628E-09</v>
+        <v>5.482689590341553E-09</v>
       </c>
       <c r="J55">
-        <v>4.297544855342988E-09</v>
+        <v>4.297544855342934E-09</v>
       </c>
       <c r="K55">
-        <v>0.0001187881168871196</v>
+        <v>0.0001187881168871209</v>
       </c>
       <c r="L55">
-        <v>0.1081788495785026</v>
+        <v>0.1081788495785032</v>
       </c>
       <c r="M55">
-        <v>744.643940595579</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.1081783622845379</v>
+      </c>
+      <c r="N55">
+        <v>744.6439405955832</v>
+      </c>
+      <c r="O55">
+        <v>4.872939652741622E-07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>91.94305615959779</v>
+        <v>91.9430561595975</v>
       </c>
       <c r="B56">
-        <v>429669.2170646252</v>
+        <v>429669.2170646109</v>
       </c>
       <c r="C56">
-        <v>634.1363939799381</v>
+        <v>634.1363939799166</v>
       </c>
       <c r="D56">
-        <v>25728.66766632042</v>
+        <v>25728.66766632047</v>
       </c>
       <c r="E56">
-        <v>5020.442388967755</v>
+        <v>5020.442388967767</v>
       </c>
       <c r="F56">
-        <v>4359.576474706221</v>
+        <v>4359.576474706232</v>
       </c>
       <c r="G56">
-        <v>6.376536219172855</v>
+        <v>6.376536219172835</v>
       </c>
       <c r="H56">
-        <v>31.19842936086768</v>
+        <v>31.19842936086753</v>
       </c>
       <c r="I56">
-        <v>5.704240354428358E-09</v>
+        <v>5.704240354428282E-09</v>
       </c>
       <c r="J56">
-        <v>4.460179249292618E-09</v>
+        <v>4.460179249292563E-09</v>
       </c>
       <c r="K56">
-        <v>0.0001155610082953518</v>
+        <v>0.000115561008295353</v>
       </c>
       <c r="L56">
-        <v>0.1064043576138904</v>
+        <v>0.1064043576138909</v>
       </c>
       <c r="M56">
-        <v>734.7751430082674</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.1064038548815043</v>
+      </c>
+      <c r="N56">
+        <v>734.7751430082708</v>
+      </c>
+      <c r="O56">
+        <v>5.027323865952831E-07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>92.79242300725262</v>
+        <v>92.79242300725234</v>
       </c>
       <c r="B57">
-        <v>460606.3597979571</v>
+        <v>460606.3597979473</v>
       </c>
       <c r="C57">
-        <v>677.8761886528084</v>
+        <v>677.8761886527948</v>
       </c>
       <c r="D57">
-        <v>25573.3670038888</v>
+        <v>25573.36700388885</v>
       </c>
       <c r="E57">
-        <v>4977.96435392906</v>
+        <v>4977.964353929071</v>
       </c>
       <c r="F57">
-        <v>4316.491032692751</v>
+        <v>4316.491032692763</v>
       </c>
       <c r="G57">
-        <v>6.330196212619</v>
+        <v>6.330196212618999</v>
       </c>
       <c r="H57">
-        <v>31.54571962945169</v>
+        <v>31.54571962945153</v>
       </c>
       <c r="I57">
-        <v>5.940544270400591E-09</v>
+        <v>5.940544270400509E-09</v>
       </c>
       <c r="J57">
-        <v>4.627044936986588E-09</v>
+        <v>4.627044936986533E-09</v>
       </c>
       <c r="K57">
-        <v>0.0001124376375504567</v>
+        <v>0.0001124376375504578</v>
       </c>
       <c r="L57">
-        <v>0.1046393546128347</v>
+        <v>0.1046393546128353</v>
       </c>
       <c r="M57">
-        <v>724.8908637347596</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.1046388362179745</v>
+      </c>
+      <c r="N57">
+        <v>724.8908637347629</v>
+      </c>
+      <c r="O57">
+        <v>5.183948607273492E-07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>93.64178985490746</v>
+        <v>93.64178985490716</v>
       </c>
       <c r="B58">
-        <v>493142.6831674009</v>
+        <v>493142.6831673885</v>
       </c>
       <c r="C58">
-        <v>723.9375084019665</v>
+        <v>723.9375084019487</v>
       </c>
       <c r="D58">
-        <v>25416.39600067737</v>
+        <v>25416.39600067742</v>
       </c>
       <c r="E58">
-        <v>4934.531122118844</v>
+        <v>4934.531122118859</v>
       </c>
       <c r="F58">
-        <v>4272.738564177153</v>
+        <v>4272.738564177164</v>
       </c>
       <c r="G58">
-        <v>6.286176125220964</v>
+        <v>6.286176125220973</v>
       </c>
       <c r="H58">
-        <v>31.92953787701524</v>
+        <v>31.9295378770152</v>
       </c>
       <c r="I58">
-        <v>6.192907010813062E-09</v>
+        <v>6.192907010812997E-09</v>
       </c>
       <c r="J58">
-        <v>4.798217862476018E-09</v>
+        <v>4.798217862475962E-09</v>
       </c>
       <c r="K58">
-        <v>0.0001094106987292835</v>
+        <v>0.0001094106987292843</v>
       </c>
       <c r="L58">
-        <v>0.1028921828002446</v>
+        <v>0.1028921828002451</v>
       </c>
       <c r="M58">
-        <v>714.9868081985815</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.1028916485249776</v>
+      </c>
+      <c r="N58">
+        <v>714.9868081985844</v>
+      </c>
+      <c r="O58">
+        <v>5.342752675370804E-07</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>94.49115670256229</v>
+        <v>94.49115670256199</v>
       </c>
       <c r="B59">
-        <v>527326.6101623874</v>
+        <v>527326.6101623719</v>
       </c>
       <c r="C59">
-        <v>772.4225924011108</v>
+        <v>772.4225924010879</v>
       </c>
       <c r="D59">
-        <v>25257.62743996505</v>
+        <v>25257.6274399651</v>
       </c>
       <c r="E59">
-        <v>4890.095343174325</v>
+        <v>4890.095343174337</v>
       </c>
       <c r="F59">
-        <v>4228.281406586346</v>
+        <v>4228.281406586353</v>
       </c>
       <c r="G59">
-        <v>6.244257885577619</v>
+        <v>6.244257885577703</v>
       </c>
       <c r="H59">
-        <v>32.35049139938948</v>
+        <v>32.35049139938945</v>
       </c>
       <c r="I59">
-        <v>6.462777702385313E-09</v>
+        <v>6.462777702385254E-09</v>
       </c>
       <c r="J59">
-        <v>4.973789390805449E-09</v>
+        <v>4.973789390805394E-09</v>
       </c>
       <c r="K59">
-        <v>0.0001064736413448931</v>
+        <v>0.000106473641344894</v>
       </c>
       <c r="L59">
-        <v>0.1011691339601338</v>
+        <v>0.1011691339601342</v>
       </c>
       <c r="M59">
-        <v>705.0588316175955</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.1011685835917557</v>
+      </c>
+      <c r="N59">
+        <v>705.0588316175969</v>
+      </c>
+      <c r="O59">
+        <v>5.503683785019605E-07</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>95.34052355021713</v>
+        <v>95.34052355021683</v>
       </c>
       <c r="B60">
-        <v>563206.9273192812</v>
+        <v>563206.9273192715</v>
       </c>
       <c r="C60">
-        <v>823.4398976059297</v>
+        <v>823.4398976059169</v>
       </c>
       <c r="D60">
-        <v>25096.93104718555</v>
+        <v>25096.93104718561</v>
       </c>
       <c r="E60">
-        <v>4844.608094887307</v>
+        <v>4844.608094887322</v>
       </c>
       <c r="F60">
-        <v>4183.080891253981</v>
+        <v>4183.080891254001</v>
       </c>
       <c r="G60">
-        <v>6.204253691339855</v>
+        <v>6.204253691339878</v>
       </c>
       <c r="H60">
-        <v>32.80937225098229</v>
+        <v>32.80937225098206</v>
       </c>
       <c r="I60">
-        <v>6.751767832158675E-09</v>
+        <v>6.751767832158552E-09</v>
       </c>
       <c r="J60">
-        <v>5.153868005333994E-09</v>
+        <v>5.153868005333931E-09</v>
       </c>
       <c r="K60">
-        <v>0.000103620595728086</v>
+        <v>0.000103620595728087</v>
       </c>
       <c r="L60">
-        <v>0.09947443371995268</v>
+        <v>0.09947443371995331</v>
       </c>
       <c r="M60">
-        <v>695.1029471393415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.09947386705001179</v>
+      </c>
+      <c r="N60">
+        <v>695.1029471393454</v>
+      </c>
+      <c r="O60">
+        <v>5.666699415102839E-07</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>96.18989039787196</v>
+        <v>96.18989039787165</v>
       </c>
       <c r="B61">
-        <v>600832.8044892129</v>
+        <v>600832.8044892011</v>
       </c>
       <c r="C61">
-        <v>877.1048346323137</v>
+        <v>877.1048346322973</v>
       </c>
       <c r="D61">
-        <v>24934.17310266489</v>
+        <v>24934.17310266495</v>
       </c>
       <c r="E61">
-        <v>4798.018553870817</v>
+        <v>4798.018553870833</v>
       </c>
       <c r="F61">
-        <v>4137.097081064704</v>
+        <v>4137.09708106472</v>
       </c>
       <c r="G61">
-        <v>6.166003700105873</v>
+        <v>6.166003700105877</v>
       </c>
       <c r="H61">
-        <v>33.30716423281925</v>
+        <v>33.30716423281914</v>
       </c>
       <c r="I61">
-        <v>7.061673093229297E-09</v>
+        <v>7.061673093229188E-09</v>
       </c>
       <c r="J61">
-        <v>5.338581043106848E-09</v>
+        <v>5.338581043106785E-09</v>
       </c>
       <c r="K61">
-        <v>0.000100846304610772</v>
+        <v>0.0001008463046107729</v>
       </c>
       <c r="L61">
-        <v>0.09781037965359023</v>
+        <v>0.09781037965359078</v>
       </c>
       <c r="M61">
-        <v>685.115331165538</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.09780979647683388</v>
+      </c>
+      <c r="N61">
+        <v>685.1153311655419</v>
+      </c>
+      <c r="O61">
+        <v>5.831767569055275E-07</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>97.0392572455268</v>
+        <v>97.03925724552649</v>
       </c>
       <c r="B62">
-        <v>640253.8224881613</v>
+        <v>640253.8224881543</v>
       </c>
       <c r="C62">
-        <v>933.5406141295721</v>
+        <v>933.5406141295646</v>
       </c>
       <c r="D62">
-        <v>24769.21604509323</v>
+        <v>24769.2160450933</v>
       </c>
       <c r="E62">
-        <v>4750.273638627181</v>
+        <v>4750.273638627189</v>
       </c>
       <c r="F62">
-        <v>4090.288486923364</v>
+        <v>4090.288486923377</v>
       </c>
       <c r="G62">
-        <v>6.129374048191568</v>
+        <v>6.129374048191574</v>
       </c>
       <c r="H62">
-        <v>33.8450522109189</v>
+        <v>33.84505221091859</v>
       </c>
       <c r="I62">
-        <v>7.394498708583982E-09</v>
+        <v>7.394498708583832E-09</v>
       </c>
       <c r="J62">
-        <v>5.528076476802852E-09</v>
+        <v>5.528076476802782E-09</v>
       </c>
       <c r="K62">
-        <v>9.81460600051818E-05</v>
+        <v>9.814606000518281E-05</v>
       </c>
       <c r="L62">
-        <v>0.09617758413042402</v>
+        <v>0.09617758413042467</v>
       </c>
       <c r="M62">
-        <v>675.0923260822516</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.0961769842436801</v>
+      </c>
+      <c r="N62">
+        <v>675.0923260822557</v>
+      </c>
+      <c r="O62">
+        <v>5.998867445765335E-07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>97.88862409318165</v>
+        <v>97.88862409318132</v>
       </c>
       <c r="B63">
-        <v>681520.0097050585</v>
+        <v>681520.0097050478</v>
       </c>
       <c r="C63">
-        <v>992.8792219003017</v>
+        <v>992.879221900288</v>
       </c>
       <c r="D63">
-        <v>24601.91806420233</v>
+        <v>24601.9180642024</v>
       </c>
       <c r="E63">
-        <v>4701.317620916962</v>
+        <v>4701.317620916981</v>
       </c>
       <c r="F63">
-        <v>4042.611759331578</v>
+        <v>4042.611759331598</v>
       </c>
       <c r="G63">
-        <v>6.09425517238274</v>
+        <v>6.094255172382713</v>
       </c>
       <c r="H63">
-        <v>34.4244340803718</v>
+        <v>34.42443408037153</v>
       </c>
       <c r="I63">
-        <v>7.752488887851679E-09</v>
+        <v>7.752488887851527E-09</v>
       </c>
       <c r="J63">
-        <v>5.722524753898412E-09</v>
+        <v>5.72252475389833E-09</v>
       </c>
       <c r="K63">
-        <v>9.551564468354397E-05</v>
+        <v>9.551564468354512E-05</v>
       </c>
       <c r="L63">
-        <v>0.09457527169357806</v>
+        <v>0.09457527169357875</v>
       </c>
       <c r="M63">
-        <v>665.0304405565555</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.0945746548945768</v>
+      </c>
+      <c r="N63">
+        <v>665.0304405565599</v>
+      </c>
+      <c r="O63">
+        <v>6.16799001954591E-07</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>98.73799094083648</v>
+        <v>98.73799094083616</v>
       </c>
       <c r="B64">
-        <v>724681.888881185</v>
+        <v>724681.8888811622</v>
       </c>
       <c r="C64">
-        <v>1055.26254416232</v>
+        <v>1055.262544162284</v>
       </c>
       <c r="D64">
-        <v>24432.13268088</v>
+        <v>24432.13268088008</v>
       </c>
       <c r="E64">
-        <v>4651.091700921339</v>
+        <v>4651.091700921354</v>
       </c>
       <c r="F64">
-        <v>3994.021350934971</v>
+        <v>3994.021350934988</v>
       </c>
       <c r="G64">
-        <v>6.060560412157822</v>
+        <v>6.060560412157835</v>
       </c>
       <c r="H64">
-        <v>35.04693578744751</v>
+        <v>35.04693578744723</v>
       </c>
       <c r="I64">
-        <v>8.138161217548274E-09</v>
+        <v>8.138161217548084E-09</v>
       </c>
       <c r="J64">
-        <v>5.922120705873007E-09</v>
+        <v>5.922120705872916E-09</v>
       </c>
       <c r="K64">
-        <v>9.295127773368533E-05</v>
+        <v>9.295127773368648E-05</v>
       </c>
       <c r="L64">
-        <v>0.09300158861327996</v>
+        <v>0.09300158861328064</v>
       </c>
       <c r="M64">
-        <v>654.9263475048471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.09300095469942782</v>
+      </c>
+      <c r="N64">
+        <v>654.9263475048522</v>
+      </c>
+      <c r="O64">
+        <v>6.339138528272634E-07</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>99.58735778849133</v>
+        <v>99.58735778849099</v>
       </c>
       <c r="B65">
-        <v>769790.5354246851</v>
+        <v>769790.5354246724</v>
       </c>
       <c r="C65">
-        <v>1120.843668059253</v>
+        <v>1120.843668059237</v>
       </c>
       <c r="D65">
-        <v>24259.70831259503</v>
+        <v>24259.7083125951</v>
       </c>
       <c r="E65">
-        <v>4599.533541206325</v>
+        <v>4599.533541206336</v>
       </c>
       <c r="F65">
-        <v>3944.469145398204</v>
+        <v>3944.469145398215</v>
       </c>
       <c r="G65">
-        <v>6.028224872189459</v>
+        <v>6.028224872189509</v>
       </c>
       <c r="H65">
-        <v>35.71442994513146</v>
+        <v>35.71442994513129</v>
       </c>
       <c r="I65">
-        <v>8.554346969264483E-09</v>
+        <v>8.554346969264334E-09</v>
       </c>
       <c r="J65">
-        <v>6.127085542602157E-09</v>
+        <v>6.127085542602083E-09</v>
       </c>
       <c r="K65">
-        <v>9.044956380298207E-05</v>
+        <v>9.044956380298301E-05</v>
       </c>
       <c r="L65">
-        <v>0.09145389448746158</v>
+        <v>0.09145389448746218</v>
       </c>
       <c r="M65">
-        <v>644.7768797831178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.09145324325457531</v>
+      </c>
+      <c r="N65">
+        <v>644.7768797831211</v>
+      </c>
+      <c r="O65">
+        <v>6.512328868692169E-07</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>100.4367246361462</v>
+        <v>100.4367246361458</v>
       </c>
       <c r="B66">
-        <v>816897.6487868138</v>
+        <v>816897.6487867946</v>
       </c>
       <c r="C66">
-        <v>1189.788386910829</v>
+        <v>1189.788386910801</v>
       </c>
       <c r="D66">
-        <v>24084.48782148865</v>
+        <v>24084.48782148872</v>
       </c>
       <c r="E66">
-        <v>4546.576753926925</v>
+        <v>4546.576753926933</v>
       </c>
       <c r="F66">
-        <v>3893.904047356439</v>
+        <v>3893.904047356449</v>
       </c>
       <c r="G66">
-        <v>5.99720452711969</v>
+        <v>5.99720452711967</v>
       </c>
       <c r="H66">
-        <v>36.42905873461124</v>
+        <v>36.42905873461085</v>
       </c>
       <c r="I66">
-        <v>9.004238543707448E-09</v>
+        <v>9.004238543707232E-09</v>
       </c>
       <c r="J66">
-        <v>6.337668949635832E-09</v>
+        <v>6.337668949635744E-09</v>
       </c>
       <c r="K66">
-        <v>8.800744575148795E-05</v>
+        <v>8.800744575148904E-05</v>
       </c>
       <c r="L66">
-        <v>0.08992901840352095</v>
+        <v>0.0899290184035216</v>
       </c>
       <c r="M66">
-        <v>634.5790235966142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.08992834964453178</v>
+      </c>
+      <c r="N66">
+        <v>634.5790235966192</v>
+      </c>
+      <c r="O66">
+        <v>6.687589898235162E-07</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>101.286091483801</v>
+        <v>101.2860914838007</v>
       </c>
       <c r="B67">
-        <v>866055.638600739</v>
+        <v>866055.6386007091</v>
       </c>
       <c r="C67">
-        <v>1262.276944874862</v>
+        <v>1262.276944874814</v>
       </c>
       <c r="D67">
-        <v>23906.30804175507</v>
+        <v>23906.30804175514</v>
       </c>
       <c r="E67">
-        <v>4492.150335041389</v>
+        <v>4492.15033504143</v>
       </c>
       <c r="F67">
-        <v>3842.27152746197</v>
+        <v>3842.271527462008</v>
       </c>
       <c r="G67">
-        <v>5.967475552652225</v>
+        <v>5.967475552652238</v>
       </c>
       <c r="H67">
-        <v>37.19326198681052</v>
+        <v>37.1932619868103</v>
       </c>
       <c r="I67">
-        <v>9.491445566933035E-09</v>
+        <v>9.491445566932845E-09</v>
       </c>
       <c r="J67">
-        <v>6.554151308967054E-09</v>
+        <v>6.554151308966971E-09</v>
       </c>
       <c r="K67">
-        <v>8.562216051947102E-05</v>
+        <v>8.562216051947196E-05</v>
       </c>
       <c r="L67">
-        <v>0.08842347275874349</v>
+        <v>0.08842347275874411</v>
       </c>
       <c r="M67">
-        <v>624.3299095762363</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.0884227862623799</v>
+      </c>
+      <c r="N67">
+        <v>624.3299095762404</v>
+      </c>
+      <c r="O67">
+        <v>6.864963642168164E-07</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>102.1354583314558</v>
+        <v>102.1354583314555</v>
       </c>
       <c r="B68">
-        <v>917317.7274670813</v>
+        <v>917317.7274670475</v>
       </c>
       <c r="C68">
-        <v>1338.50606180657</v>
+        <v>1338.506061806514</v>
       </c>
       <c r="D68">
-        <v>23724.99928191286</v>
+        <v>23724.99928191293</v>
       </c>
       <c r="E68">
-        <v>4436.178038539402</v>
+        <v>4436.178038539425</v>
       </c>
       <c r="F68">
-        <v>3789.5131156788</v>
+        <v>3789.513115678817</v>
       </c>
       <c r="G68">
-        <v>5.939033868873081</v>
+        <v>5.939033868873022</v>
       </c>
       <c r="H68">
-        <v>38.00981159780126</v>
+        <v>38.00981159780088</v>
       </c>
       <c r="I68">
-        <v>1.002006153922212E-08</v>
+        <v>1.002006153922191E-08</v>
       </c>
       <c r="J68">
-        <v>6.776846067326141E-09</v>
+        <v>6.776846067326049E-09</v>
       </c>
       <c r="K68">
-        <v>8.329119807895043E-05</v>
+        <v>8.329119807895137E-05</v>
       </c>
       <c r="L68">
-        <v>0.08693362535126906</v>
+        <v>0.08693362535126965</v>
       </c>
       <c r="M68">
-        <v>614.0268014233175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.08693292090072918</v>
+      </c>
+      <c r="N68">
+        <v>614.0268014233219</v>
+      </c>
+      <c r="O68">
+        <v>7.044505404705182E-07</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>102.9848251791107</v>
+        <v>102.9848251791103</v>
       </c>
       <c r="B69">
-        <v>970738.0724572595</v>
+        <v>970738.0724572303</v>
       </c>
       <c r="C69">
-        <v>1418.691286287249</v>
+        <v>1418.691286287202</v>
       </c>
       <c r="D69">
-        <v>23540.38479616711</v>
+        <v>23540.38479616719</v>
       </c>
       <c r="E69">
-        <v>4378.577682831397</v>
+        <v>4378.577682831425</v>
       </c>
       <c r="F69">
-        <v>3735.565834963991</v>
+        <v>3735.565834964016</v>
       </c>
       <c r="G69">
-        <v>5.911894883387411</v>
+        <v>5.911894883387392</v>
       </c>
       <c r="H69">
-        <v>38.88185376793294</v>
+        <v>38.88185376793247</v>
       </c>
       <c r="I69">
-        <v>1.059474343498816E-08</v>
+        <v>1.05947434349879E-08</v>
       </c>
       <c r="J69">
-        <v>7.006102280208927E-09</v>
+        <v>7.006102280208823E-09</v>
       </c>
       <c r="K69">
-        <v>8.101226338643778E-05</v>
+        <v>8.101226338643875E-05</v>
       </c>
       <c r="L69">
-        <v>0.0854558348286328</v>
+        <v>0.08545583482863342</v>
       </c>
       <c r="M69">
-        <v>603.6670819849882</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.08545511220025519</v>
+      </c>
+      <c r="N69">
+        <v>603.6670819849929</v>
+      </c>
+      <c r="O69">
+        <v>7.2262837822815E-07</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>103.8341920267655</v>
+        <v>103.8341920267652</v>
       </c>
       <c r="B70">
-        <v>1026371.907588378</v>
+        <v>1026371.907588357</v>
       </c>
       <c r="C70">
-        <v>1503.069733186715</v>
+        <v>1503.069733186684</v>
       </c>
       <c r="D70">
-        <v>23352.28021716015</v>
+        <v>23352.28021716023</v>
       </c>
       <c r="E70">
-        <v>4319.260380531198</v>
+        <v>4319.260380531228</v>
       </c>
       <c r="F70">
-        <v>3680.361566314132</v>
+        <v>3680.361566314161</v>
       </c>
       <c r="G70">
-        <v>5.886093423349783</v>
+        <v>5.886093423349789</v>
       </c>
       <c r="H70">
-        <v>39.8129609908846</v>
+        <v>39.81296099088415</v>
       </c>
       <c r="I70">
-        <v>1.122080730230261E-08</v>
+        <v>1.122080730230233E-08</v>
       </c>
       <c r="J70">
-        <v>7.242307365056868E-09</v>
+        <v>7.242307365056772E-09</v>
       </c>
       <c r="K70">
-        <v>7.878324128771075E-05</v>
+        <v>7.878324128771161E-05</v>
       </c>
       <c r="L70">
-        <v>0.08398655659182146</v>
+        <v>0.08398655659182201</v>
       </c>
       <c r="M70">
-        <v>593.2482365915887</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.08398581555376432</v>
+      </c>
+      <c r="N70">
+        <v>593.248236591593</v>
+      </c>
+      <c r="O70">
+        <v>7.410380576947836E-07</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>104.6835588744203</v>
+        <v>104.68355887442</v>
       </c>
       <c r="B71">
-        <v>1084275.709685513</v>
+        <v>1084275.709685488</v>
       </c>
       <c r="C71">
-        <v>1591.903271810042</v>
+        <v>1591.903271810004</v>
       </c>
       <c r="D71">
-        <v>23160.49293985082</v>
+        <v>23160.4929398509</v>
       </c>
       <c r="E71">
-        <v>4258.129681959291</v>
+        <v>4258.129681959323</v>
       </c>
       <c r="F71">
-        <v>3623.826334870705</v>
+        <v>3623.826334870735</v>
       </c>
       <c r="G71">
-        <v>5.861683846740531</v>
+        <v>5.861683846740545</v>
       </c>
       <c r="H71">
-        <v>40.80719628772829</v>
+        <v>40.80719628772788</v>
       </c>
       <c r="I71">
-        <v>1.190434376604182E-08</v>
+        <v>1.190434376604154E-08</v>
       </c>
       <c r="J71">
-        <v>7.485890103641647E-09</v>
+        <v>7.48589010364154E-09</v>
       </c>
       <c r="K71">
-        <v>7.660216434728761E-05</v>
+        <v>7.660216434728851E-05</v>
       </c>
       <c r="L71">
-        <v>0.08252242653391366</v>
+        <v>0.08252242653391423</v>
       </c>
       <c r="M71">
-        <v>582.7678334689223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.08252166684485349</v>
+      </c>
+      <c r="N71">
+        <v>582.7678334689266</v>
+      </c>
+      <c r="O71">
+        <v>7.596890607472672E-07</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>105.5329257220752</v>
+        <v>105.5329257220748</v>
       </c>
       <c r="B72">
-        <v>1144507.390164662</v>
+        <v>1144507.390164632</v>
       </c>
       <c r="C72">
-        <v>1685.482241654639</v>
+        <v>1685.48224165459</v>
       </c>
       <c r="D72">
-        <v>22964.82144285657</v>
+        <v>22964.82144285665</v>
       </c>
       <c r="E72">
-        <v>4195.080621929599</v>
+        <v>4195.080621929626</v>
       </c>
       <c r="F72">
-        <v>3565.879505432906</v>
+        <v>3565.879505432929</v>
       </c>
       <c r="G72">
-        <v>5.8387403243672</v>
+        <v>5.838740324367214</v>
       </c>
       <c r="H72">
-        <v>41.86919292590838</v>
+        <v>41.86919292590804</v>
       </c>
       <c r="I72">
-        <v>1.265235847278686E-08</v>
+        <v>1.26523584727866E-08</v>
       </c>
       <c r="J72">
-        <v>7.737323942282241E-09</v>
+        <v>7.737323942282143E-09</v>
       </c>
       <c r="K72">
-        <v>7.446718358709082E-05</v>
+        <v>7.44671835870916E-05</v>
       </c>
       <c r="L72">
-        <v>0.08106032921167368</v>
+        <v>0.08106032921167422</v>
       </c>
       <c r="M72">
-        <v>572.2235010354035</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.08105955061953266</v>
+      </c>
+      <c r="N72">
+        <v>572.2235010354069</v>
+      </c>
+      <c r="O72">
+        <v>7.785921415599282E-07</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>106.38229256973</v>
+        <v>106.3822925697296</v>
       </c>
       <c r="B73">
-        <v>1207126.515300972</v>
+        <v>1207126.515300956</v>
       </c>
       <c r="C73">
-        <v>1784.129784867388</v>
+        <v>1784.129784867369</v>
       </c>
       <c r="D73">
-        <v>22765.05452908625</v>
+        <v>22765.05452908635</v>
       </c>
       <c r="E73">
-        <v>4129.998658990876</v>
+        <v>4129.998658990889</v>
       </c>
       <c r="F73">
-        <v>3506.432874454034</v>
+        <v>3506.432874454052</v>
       </c>
       <c r="G73">
-        <v>5.81735728503318</v>
+        <v>5.817357285033184</v>
       </c>
       <c r="H73">
-        <v>43.00425384278083</v>
+        <v>43.00425384278003</v>
       </c>
       <c r="I73">
-        <v>1.347294403134778E-08</v>
+        <v>1.347294403134731E-08</v>
       </c>
       <c r="J73">
-        <v>7.9971306497307E-09</v>
+        <v>7.997130649730587E-09</v>
       </c>
       <c r="K73">
-        <v>7.237654212178427E-05</v>
+        <v>7.237654212178526E-05</v>
       </c>
       <c r="L73">
-        <v>0.0795974557148152</v>
+        <v>0.07959745571481588</v>
       </c>
       <c r="M73">
-        <v>561.6129019124202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.07959665795552932</v>
+      </c>
+      <c r="N73">
+        <v>561.6129019124257</v>
+      </c>
+      <c r="O73">
+        <v>7.977592865636859E-07</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>107.2316594173848</v>
+        <v>107.2316594173845</v>
       </c>
       <c r="B74">
-        <v>1272194.557428964</v>
+        <v>1272194.557428937</v>
       </c>
       <c r="C74">
-        <v>1888.206897088483</v>
+        <v>1888.206897088442</v>
       </c>
       <c r="D74">
-        <v>22560.97046156752</v>
+        <v>22560.97046156761</v>
       </c>
       <c r="E74">
-        <v>4062.758496662518</v>
+        <v>4062.758496662551</v>
       </c>
       <c r="F74">
-        <v>3445.389644642818</v>
+        <v>3445.389644642849</v>
       </c>
       <c r="G74">
-        <v>5.797650017238641</v>
+        <v>5.797650017238651</v>
       </c>
       <c r="H74">
-        <v>44.21847628936619</v>
+        <v>44.21847628936561</v>
       </c>
       <c r="I74">
-        <v>1.437549204553422E-08</v>
+        <v>1.437549204553381E-08</v>
       </c>
       <c r="J74">
-        <v>8.265884407325317E-09</v>
+        <v>8.265884407325199E-09</v>
       </c>
       <c r="K74">
-        <v>7.032855167317327E-05</v>
+        <v>7.032855167317417E-05</v>
       </c>
       <c r="L74">
-        <v>0.07813135495248938</v>
+        <v>0.07813135495249</v>
       </c>
       <c r="M74">
-        <v>550.9337035205393</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.07813053774882642</v>
+      </c>
+      <c r="N74">
+        <v>550.9337035205438</v>
+      </c>
+      <c r="O74">
+        <v>8.172036635853725E-07</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>108.0810262650397</v>
+        <v>108.0810262650393</v>
       </c>
       <c r="B75">
-        <v>1339775.17915221</v>
+        <v>1339775.179152173</v>
       </c>
       <c r="C75">
-        <v>1998.118310303865</v>
+        <v>1998.1183103038</v>
       </c>
       <c r="D75">
-        <v>22352.33596261678</v>
+        <v>22352.33596261689</v>
       </c>
       <c r="E75">
-        <v>3993.222777973328</v>
+        <v>3993.222777973361</v>
       </c>
       <c r="F75">
-        <v>3382.64326808847</v>
+        <v>3382.6432680885</v>
       </c>
       <c r="G75">
-        <v>5.779755421735111</v>
+        <v>5.77975542173514</v>
       </c>
       <c r="H75">
-        <v>45.51890893561524</v>
+        <v>45.51890893561458</v>
       </c>
       <c r="I75">
-        <v>1.537095661307545E-08</v>
+        <v>1.537095661307493E-08</v>
       </c>
       <c r="J75">
-        <v>8.544216425572303E-09</v>
+        <v>8.544216425572164E-09</v>
       </c>
       <c r="K75">
-        <v>6.832157193294077E-05</v>
+        <v>6.832157193294176E-05</v>
       </c>
       <c r="L75">
-        <v>0.07665998052568854</v>
+        <v>0.07665998052568926</v>
       </c>
       <c r="M75">
-        <v>540.1835452102742</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.07665914358612903</v>
+      </c>
+      <c r="N75">
+        <v>540.1835452102794</v>
+      </c>
+      <c r="O75">
+        <v>8.369395602204446E-07</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>108.9303931126945</v>
+        <v>108.9303931126941</v>
       </c>
       <c r="B76">
-        <v>1409934.551863763</v>
+        <v>1409934.551863722</v>
       </c>
       <c r="C76">
-        <v>2114.319330321386</v>
+        <v>2114.319330321312</v>
       </c>
       <c r="D76">
-        <v>22138.90503437034</v>
+        <v>22138.90503437043</v>
       </c>
       <c r="E76">
-        <v>3921.240648802464</v>
+        <v>3921.240648802509</v>
       </c>
       <c r="F76">
-        <v>3318.076145108451</v>
+        <v>3318.07614510849</v>
       </c>
       <c r="G76">
-        <v>5.763832910449023</v>
+        <v>5.763832910449027</v>
       </c>
       <c r="H76">
-        <v>46.91375099444733</v>
+        <v>46.91375099444675</v>
       </c>
       <c r="I76">
-        <v>1.647218447590596E-08</v>
+        <v>1.647218447590543E-08</v>
       </c>
       <c r="J76">
-        <v>8.832820207363123E-09</v>
+        <v>8.832820207362994E-09</v>
       </c>
       <c r="K76">
-        <v>6.635399272124529E-05</v>
+        <v>6.635399272124617E-05</v>
       </c>
       <c r="L76">
-        <v>0.07518173391106961</v>
+        <v>0.07518173391107026</v>
       </c>
       <c r="M76">
-        <v>529.3600019884432</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.07518087692875854</v>
+      </c>
+      <c r="N76">
+        <v>529.3600019884485</v>
+      </c>
+      <c r="O76">
+        <v>8.569823117188457E-07</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>109.7797599603494</v>
+        <v>109.779759960349</v>
       </c>
       <c r="B77">
-        <v>1482741.708457909</v>
+        <v>1482741.708457891</v>
       </c>
       <c r="C77">
-        <v>2237.323753432567</v>
+        <v>2237.323753432546</v>
       </c>
       <c r="D77">
-        <v>21920.41754545857</v>
+        <v>21920.41754545868</v>
       </c>
       <c r="E77">
-        <v>3846.646193733802</v>
+        <v>3846.646193733826</v>
       </c>
       <c r="F77">
-        <v>3251.558169974643</v>
+        <v>3251.558169974666</v>
       </c>
       <c r="G77">
-        <v>5.750065448987076</v>
+        <v>5.750065448987073</v>
       </c>
       <c r="H77">
-        <v>48.41260605941952</v>
+        <v>48.41260605941871</v>
       </c>
       <c r="I77">
-        <v>1.769433228993853E-08</v>
+        <v>1.769433228993794E-08</v>
       </c>
       <c r="J77">
-        <v>9.132457612878723E-09</v>
+        <v>9.132457612878584E-09</v>
       </c>
       <c r="K77">
-        <v>6.442421885672734E-05</v>
+        <v>6.442421885672824E-05</v>
       </c>
       <c r="L77">
-        <v>0.0736955034062405</v>
+        <v>0.07369550340624119</v>
       </c>
       <c r="M77">
-        <v>518.4605450513682</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.07369462605802211</v>
+      </c>
+      <c r="N77">
+        <v>518.4605450513731</v>
+      </c>
+      <c r="O77">
+        <v>8.773482190805968E-07</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>110.6291268080042</v>
+        <v>110.6291268080038</v>
       </c>
       <c r="B78">
-        <v>1558268.927680762</v>
+        <v>1558268.927680737</v>
       </c>
       <c r="C78">
-        <v>2367.712974607951</v>
+        <v>2367.712974607914</v>
       </c>
       <c r="D78">
-        <v>21696.59751124481</v>
+        <v>21696.59751124493</v>
       </c>
       <c r="E78">
-        <v>3769.256762838195</v>
+        <v>3769.25676283823</v>
       </c>
       <c r="F78">
-        <v>3182.945123224578</v>
+        <v>3182.945123224612</v>
       </c>
       <c r="G78">
-        <v>5.738660742556982</v>
+        <v>5.738660742556972</v>
       </c>
       <c r="H78">
-        <v>50.02680764914668</v>
+        <v>50.02680764914572</v>
       </c>
       <c r="I78">
-        <v>1.905539888484233E-08</v>
+        <v>1.905539888484155E-08</v>
       </c>
       <c r="J78">
-        <v>9.44396592808809E-09</v>
+        <v>9.443965928087923E-09</v>
       </c>
       <c r="K78">
-        <v>6.253065760847639E-05</v>
+        <v>6.253065760847737E-05</v>
       </c>
       <c r="L78">
-        <v>0.07220069721464448</v>
+        <v>0.0722006972146453</v>
       </c>
       <c r="M78">
-        <v>507.4824995203889</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.07219979916018671</v>
+      </c>
+      <c r="N78">
+        <v>507.4824995203949</v>
+      </c>
+      <c r="O78">
+        <v>8.980544585884909E-07</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>111.478493655659</v>
+        <v>111.4784936556586</v>
       </c>
       <c r="B79">
-        <v>1636592.143579858</v>
+        <v>1636592.143579823</v>
       </c>
       <c r="C79">
-        <v>2506.146361303777</v>
+        <v>2506.146361303719</v>
       </c>
       <c r="D79">
-        <v>21467.15097209265</v>
+        <v>21467.15097209278</v>
       </c>
       <c r="E79">
-        <v>3688.871232691502</v>
+        <v>3688.871232691546</v>
       </c>
       <c r="F79">
-        <v>3112.076926392173</v>
+        <v>3112.076926392218</v>
       </c>
       <c r="G79">
-        <v>5.729852569336413</v>
+        <v>5.729852569336407</v>
       </c>
       <c r="H79">
-        <v>51.76983941671959</v>
+        <v>51.76983941671832</v>
       </c>
       <c r="I79">
-        <v>2.057691088000086E-08</v>
+        <v>2.057691087999983E-08</v>
       </c>
       <c r="J79">
-        <v>9.768266202187003E-09</v>
+        <v>9.768266202186815E-09</v>
       </c>
       <c r="K79">
-        <v>6.067170853790225E-05</v>
+        <v>6.067170853790333E-05</v>
       </c>
       <c r="L79">
-        <v>0.07069726820898278</v>
+        <v>0.0706972682089837</v>
       </c>
       <c r="M79">
-        <v>496.4229999777903</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.07069634908999889</v>
+      </c>
+      <c r="N79">
+        <v>496.4229999777974</v>
+      </c>
+      <c r="O79">
+        <v>9.191189848145724E-07</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>112.3278605033139</v>
+        <v>112.3278605033135</v>
       </c>
       <c r="B80">
-        <v>1717791.367160807</v>
+        <v>1717791.36716078</v>
       </c>
       <c r="C80">
-        <v>2653.372883261774</v>
+        <v>2653.372883261733</v>
       </c>
       <c r="D80">
-        <v>21231.76334336299</v>
+        <v>21231.76334336312</v>
       </c>
       <c r="E80">
-        <v>3605.268285414945</v>
+        <v>3605.268285414976</v>
       </c>
       <c r="F80">
-        <v>3038.775803227358</v>
+        <v>3038.775803227388</v>
       </c>
       <c r="G80">
-        <v>5.723902272096698</v>
+        <v>5.723902272096702</v>
       </c>
       <c r="H80">
-        <v>53.65788138496161</v>
+        <v>53.65788138496064</v>
       </c>
       <c r="I80">
-        <v>2.228481509949584E-08</v>
+        <v>2.228481509949484E-08</v>
       </c>
       <c r="J80">
-        <v>1.010637320597658E-08</v>
+        <v>1.01063732059764E-08</v>
       </c>
       <c r="K80">
-        <v>5.884575545112016E-05</v>
+        <v>5.884575545112117E-05</v>
       </c>
       <c r="L80">
-        <v>0.06918572733531714</v>
+        <v>0.06918572733531798</v>
       </c>
       <c r="M80">
-        <v>485.2789445867024</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.06918478677488776</v>
+      </c>
+      <c r="N80">
+        <v>485.2789445867088</v>
+      </c>
+      <c r="O80">
+        <v>9.405604302274766E-07</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>113.1772273509687</v>
+        <v>113.1772273509683</v>
       </c>
       <c r="B81">
-        <v>1801951.097468498</v>
+        <v>1801951.097468486</v>
       </c>
       <c r="C81">
-        <v>2810.243829096455</v>
+        <v>2810.243829096456</v>
       </c>
       <c r="D81">
-        <v>20990.09606883207</v>
+        <v>20990.0960688322</v>
       </c>
       <c r="E81">
-        <v>3518.204853074931</v>
+        <v>3518.204853074938</v>
       </c>
       <c r="F81">
-        <v>2962.844438417123</v>
+        <v>2962.844438417135</v>
       </c>
       <c r="G81">
-        <v>5.721100429869238</v>
+        <v>5.721100429869268</v>
       </c>
       <c r="H81">
-        <v>55.71052560533033</v>
+        <v>55.71052560532906</v>
       </c>
       <c r="I81">
-        <v>2.421065320124411E-08</v>
+        <v>2.421065320124292E-08</v>
       </c>
       <c r="J81">
-        <v>1.045940748296932E-08</v>
+        <v>1.045940748296913E-08</v>
       </c>
       <c r="K81">
-        <v>5.705116005928227E-05</v>
+        <v>5.705116005928328E-05</v>
       </c>
       <c r="L81">
-        <v>0.0676671423336689</v>
+        <v>0.06766714233366976</v>
       </c>
       <c r="M81">
-        <v>474.0469486754089</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.06766617993566371</v>
+      </c>
+      <c r="N81">
+        <v>474.0469486754152</v>
+      </c>
+      <c r="O81">
+        <v>9.623980060490297E-07</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>114.0265941986236</v>
+        <v>114.0265941986231</v>
       </c>
       <c r="B82">
-        <v>1889160.684239307</v>
+        <v>1889160.684239283</v>
       </c>
       <c r="C82">
-        <v>2977.726159168575</v>
+        <v>2977.726159168548</v>
       </c>
       <c r="D82">
-        <v>20741.78235045834</v>
+        <v>20741.78235045846</v>
       </c>
       <c r="E82">
-        <v>3427.41497097241</v>
+        <v>3427.414970972446</v>
       </c>
       <c r="F82">
-        <v>2884.064299511135</v>
+        <v>2884.064299511169</v>
       </c>
       <c r="G82">
-        <v>5.721768749270804</v>
+        <v>5.721768749270776</v>
       </c>
       <c r="H82">
-        <v>57.95172220785019</v>
+        <v>57.95172220784934</v>
       </c>
       <c r="I82">
-        <v>2.63931264766107E-08</v>
+        <v>2.639312647660972E-08</v>
       </c>
       <c r="J82">
-        <v>1.082861013316056E-08</v>
+        <v>1.082861013316038E-08</v>
       </c>
       <c r="K82">
-        <v>5.528625676807888E-05</v>
+        <v>5.528625676807966E-05</v>
       </c>
       <c r="L82">
-        <v>0.06614311847236985</v>
+        <v>0.06614311847237057</v>
       </c>
       <c r="M82">
-        <v>462.7232985447176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.06614213382095942</v>
+      </c>
+      <c r="N82">
+        <v>462.7232985447229</v>
+      </c>
+      <c r="O82">
+        <v>9.846514111529711E-07</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>114.8759610462784</v>
+        <v>114.875961046278</v>
       </c>
       <c r="B83">
-        <v>1979514.581827452</v>
+        <v>1979514.581827404</v>
       </c>
       <c r="C83">
-        <v>3156.915576885863</v>
+        <v>3156.915576885761</v>
       </c>
       <c r="D83">
-        <v>20486.4216428915</v>
+        <v>20486.4216428916</v>
       </c>
       <c r="E83">
-        <v>3332.609422529009</v>
+        <v>3332.609422529058</v>
       </c>
       <c r="F83">
-        <v>2802.194401252532</v>
+        <v>2802.19440125257</v>
       </c>
       <c r="G83">
-        <v>5.726262244200423</v>
+        <v>5.726262244200456</v>
       </c>
       <c r="H83">
-        <v>60.41104298951471</v>
+        <v>60.41104298951415</v>
       </c>
       <c r="I83">
-        <v>2.888020784579712E-08</v>
+        <v>2.888020784579634E-08</v>
       </c>
       <c r="J83">
-        <v>1.121536120997797E-08</v>
+        <v>1.121536120997782E-08</v>
       </c>
       <c r="K83">
-        <v>5.354934776131157E-05</v>
+        <v>5.354934776131218E-05</v>
       </c>
       <c r="L83">
-        <v>0.06461575831439849</v>
+        <v>0.06461575831439904</v>
       </c>
       <c r="M83">
-        <v>451.3039056880921</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.06461475097364015</v>
+      </c>
+      <c r="N83">
+        <v>451.3039056880954</v>
+      </c>
+      <c r="O83">
+        <v>1.007340758891919E-06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>115.7253278939332</v>
+        <v>115.7253278939328</v>
       </c>
       <c r="B84">
-        <v>2073112.40163975</v>
+        <v>2073112.401639696</v>
       </c>
       <c r="C84">
-        <v>3349.047667340669</v>
+        <v>3349.047667340544</v>
       </c>
       <c r="D84">
-        <v>20223.57247589008</v>
+        <v>20223.57247589021</v>
       </c>
       <c r="E84">
-        <v>3233.476747121506</v>
+        <v>3233.47674712156</v>
       </c>
       <c r="F84">
-        <v>2716.97095418567</v>
+        <v>2716.970954185715</v>
       </c>
       <c r="G84">
-        <v>5.734971820464559</v>
+        <v>5.73497182046458</v>
       </c>
       <c r="H84">
-        <v>63.1253895873519</v>
+        <v>63.12538958735057</v>
       </c>
       <c r="I84">
-        <v>3.1732033571989E-08</v>
+        <v>3.173203357198756E-08</v>
       </c>
       <c r="J84">
-        <v>1.162120296282734E-08</v>
+        <v>1.162120296282715E-08</v>
       </c>
       <c r="K84">
-        <v>5.183869716455625E-05</v>
+        <v>5.183869716455704E-05</v>
       </c>
       <c r="L84">
-        <v>0.06308759810380175</v>
+        <v>0.06308759810380248</v>
       </c>
       <c r="M84">
-        <v>439.7842602154105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.06308656761726612</v>
+      </c>
+      <c r="N84">
+        <v>439.7842602154158</v>
+      </c>
+      <c r="O84">
+        <v>1.030486536355193E-06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>116.5746947415881</v>
+        <v>116.5746947415876</v>
       </c>
       <c r="B85">
-        <v>2170058.62522099</v>
+        <v>2170058.625220956</v>
       </c>
       <c r="C85">
-        <v>3555.504379662084</v>
+        <v>3555.504379662035</v>
       </c>
       <c r="D85">
-        <v>19952.74297712198</v>
+        <v>19952.74297712213</v>
       </c>
       <c r="E85">
-        <v>3129.686411045756</v>
+        <v>3129.686411045794</v>
       </c>
       <c r="F85">
-        <v>2628.108552725786</v>
+        <v>2628.108552725819</v>
       </c>
       <c r="G85">
-        <v>5.748327461141983</v>
+        <v>5.748327461141968</v>
       </c>
       <c r="H85">
-        <v>66.14133559338264</v>
+        <v>66.14133559338092</v>
       </c>
       <c r="I85">
-        <v>3.502492603162956E-08</v>
+        <v>3.502492603162762E-08</v>
       </c>
       <c r="J85">
-        <v>1.204786968499639E-08</v>
+        <v>1.204786968499615E-08</v>
       </c>
       <c r="K85">
-        <v>5.015252250720075E-05</v>
+        <v>5.015252250720168E-05</v>
       </c>
       <c r="L85">
-        <v>0.06156151906985189</v>
+        <v>0.06156151906985274</v>
       </c>
       <c r="M85">
-        <v>428.1593794255508</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.06156046496023521</v>
+      </c>
+      <c r="N85">
+        <v>428.1593794255573</v>
+      </c>
+      <c r="O85">
+        <v>1.054109617530764E-06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>117.4240615892429</v>
+        <v>117.4240615892425</v>
       </c>
       <c r="B86">
-        <v>2270461.781313695</v>
+        <v>2270461.781313657</v>
       </c>
       <c r="C86">
-        <v>3777.811717166148</v>
+        <v>3777.811717166073</v>
       </c>
       <c r="D86">
-        <v>19673.37817071902</v>
+        <v>19673.37817071915</v>
       </c>
       <c r="E86">
-        <v>3020.895159880029</v>
+        <v>3020.895159880079</v>
       </c>
       <c r="F86">
-        <v>2535.303794866085</v>
+        <v>2535.30379486613</v>
       </c>
       <c r="G86">
-        <v>5.766802340376289</v>
+        <v>5.766802340376318</v>
       </c>
       <c r="H86">
-        <v>69.51839189181804</v>
+        <v>69.51839189181652</v>
       </c>
       <c r="I86">
-        <v>3.885709064906047E-08</v>
+        <v>3.885709064905863E-08</v>
       </c>
       <c r="J86">
-        <v>1.249732673639651E-08</v>
+        <v>1.249732673639631E-08</v>
       </c>
       <c r="K86">
-        <v>4.848898084306277E-05</v>
+        <v>4.848898084306351E-05</v>
       </c>
       <c r="L86">
-        <v>0.06004063261689024</v>
+        <v>0.06004063261689092</v>
       </c>
       <c r="M86">
-        <v>416.4237422352433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.0600395543855281</v>
+      </c>
+      <c r="N86">
+        <v>416.4237422352483</v>
+      </c>
+      <c r="O86">
+        <v>1.078231362827432E-06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>118.2734284368977</v>
+        <v>118.2734284368973</v>
       </c>
       <c r="B87">
-        <v>2374432.821386062</v>
+        <v>2374432.821386049</v>
       </c>
       <c r="C87">
-        <v>4017.622976417211</v>
+        <v>4017.622976417246</v>
       </c>
       <c r="D87">
-        <v>19384.84265665862</v>
+        <v>19384.84265665882</v>
       </c>
       <c r="E87">
-        <v>2906.757636775919</v>
+        <v>2906.757636775933</v>
       </c>
       <c r="F87">
-        <v>2438.242391491537</v>
+        <v>2438.242391491558</v>
       </c>
       <c r="G87">
-        <v>5.790918412477951</v>
+        <v>5.79091841247791</v>
       </c>
       <c r="H87">
-        <v>73.3336493913729</v>
+        <v>73.33364939136935</v>
       </c>
       <c r="I87">
-        <v>4.335684848591075E-08</v>
+        <v>4.335684848590693E-08</v>
       </c>
       <c r="J87">
-        <v>1.297182258203896E-08</v>
+        <v>1.297182258203864E-08</v>
       </c>
       <c r="K87">
-        <v>4.684614559169419E-05</v>
+        <v>4.68461455916953E-05</v>
       </c>
       <c r="L87">
-        <v>0.05852813874833972</v>
+        <v>0.05852813874834074</v>
       </c>
       <c r="M87">
-        <v>404.5711911997096</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.0585270358744862</v>
+      </c>
+      <c r="N87">
+        <v>404.5711911997187</v>
+      </c>
+      <c r="O87">
+        <v>1.102873854543179E-06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>119.1227952845526</v>
+        <v>119.1227952845521</v>
       </c>
       <c r="B88">
-        <v>2482082.363814618</v>
+        <v>2482082.363814608</v>
       </c>
       <c r="C88">
-        <v>4276.68100029314</v>
+        <v>4276.681000293189</v>
       </c>
       <c r="D88">
-        <v>19086.39652492842</v>
+        <v>19086.39652492863</v>
       </c>
       <c r="E88">
-        <v>2786.941960776086</v>
+        <v>2786.941960776092</v>
       </c>
       <c r="F88">
-        <v>2336.610689458531</v>
+        <v>2336.610689458546</v>
       </c>
       <c r="G88">
-        <v>5.821254384562074</v>
+        <v>5.821254384562023</v>
       </c>
       <c r="H88">
-        <v>77.68853401265156</v>
+        <v>77.6885340126471</v>
       </c>
       <c r="I88">
-        <v>4.869481142758417E-08</v>
+        <v>4.869481142757926E-08</v>
       </c>
       <c r="J88">
-        <v>1.347395972203381E-08</v>
+        <v>1.347395972203346E-08</v>
       </c>
       <c r="K88">
-        <v>4.522196821136203E-05</v>
+        <v>4.522196821136317E-05</v>
       </c>
       <c r="L88">
-        <v>0.05702715684822016</v>
+        <v>0.0570271568482212</v>
       </c>
       <c r="M88">
-        <v>392.594769427175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.05702602878787639</v>
+      </c>
+      <c r="N88">
+        <v>392.5947694271848</v>
+      </c>
+      <c r="O88">
+        <v>1.128060344815101E-06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>119.9721621322074</v>
+        <v>119.9721621322069</v>
       </c>
       <c r="B89">
-        <v>2593516.45249375</v>
+        <v>2593516.452493673</v>
       </c>
       <c r="C89">
-        <v>4556.754406956423</v>
+        <v>4556.754406956197</v>
       </c>
       <c r="D89">
-        <v>18777.1611578242</v>
+        <v>18777.16115782433</v>
       </c>
       <c r="E89">
-        <v>2661.14957193914</v>
+        <v>2661.149571939228</v>
       </c>
       <c r="F89">
-        <v>2230.11165995716</v>
+        <v>2230.11165995723</v>
       </c>
       <c r="G89">
-        <v>5.858457565790578</v>
+        <v>5.858457565790582</v>
       </c>
       <c r="H89">
-        <v>82.71890295358756</v>
+        <v>82.71890295358645</v>
       </c>
       <c r="I89">
-        <v>5.510237449649559E-08</v>
+        <v>5.510237449649357E-08</v>
       </c>
       <c r="J89">
-        <v>1.400679369237028E-08</v>
+        <v>1.400679369237004E-08</v>
       </c>
       <c r="K89">
-        <v>4.36142159352028E-05</v>
+        <v>4.361421593520343E-05</v>
       </c>
       <c r="L89">
-        <v>0.05554052675440255</v>
+        <v>0.05554052675440316</v>
       </c>
       <c r="M89">
-        <v>380.4864380915388</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.05553937293836914</v>
+      </c>
+      <c r="N89">
+        <v>380.4864380915425</v>
+      </c>
+      <c r="O89">
+        <v>1.153816034015587E-06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>120.8215289798623</v>
+        <v>120.8215289798618</v>
       </c>
       <c r="B90">
-        <v>2708830.553948843</v>
+        <v>2708830.553948772</v>
       </c>
       <c r="C90">
-        <v>4859.549631801455</v>
+        <v>4859.54963180125</v>
       </c>
       <c r="D90">
-        <v>18456.0696501351</v>
+        <v>18456.06965013531</v>
       </c>
       <c r="E90">
-        <v>2529.135531062488</v>
+        <v>2529.135531062575</v>
       </c>
       <c r="F90">
-        <v>2118.48313299887</v>
+        <v>2118.483132998944</v>
       </c>
       <c r="G90">
-        <v>5.903262013525959</v>
+        <v>5.903262013525917</v>
       </c>
       <c r="H90">
-        <v>88.61061435420511</v>
+        <v>88.61061435420105</v>
       </c>
       <c r="I90">
-        <v>6.290068436375508E-08</v>
+        <v>6.29006843637496E-08</v>
       </c>
       <c r="J90">
-        <v>1.457397475369949E-08</v>
+        <v>1.457397475369913E-08</v>
       </c>
       <c r="K90">
-        <v>4.202037259912664E-05</v>
+        <v>4.202037259912766E-05</v>
       </c>
       <c r="L90">
-        <v>0.05407057545855562</v>
+        <v>0.05407057545855652</v>
       </c>
       <c r="M90">
-        <v>368.2365901046481</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.05406939528919658</v>
+      </c>
+      <c r="N90">
+        <v>368.236590104656</v>
+      </c>
+      <c r="O90">
+        <v>1.180169359946109E-06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>121.6708958275171</v>
+        <v>121.6708958275166</v>
       </c>
       <c r="B91">
-        <v>2828101.787517168</v>
+        <v>2828101.787517046</v>
       </c>
       <c r="C91">
-        <v>5186.616582958013</v>
+        <v>5186.616582957541</v>
       </c>
       <c r="D91">
-        <v>18121.79347693001</v>
+        <v>18121.7934769301</v>
       </c>
       <c r="E91">
-        <v>2390.720047783936</v>
+        <v>2390.720047784085</v>
       </c>
       <c r="F91">
-        <v>2001.51175279299</v>
+        <v>2001.511752793107</v>
       </c>
       <c r="G91">
-        <v>5.956516833866265</v>
+        <v>5.956516833866285</v>
       </c>
       <c r="H91">
-        <v>95.62442360703865</v>
+        <v>95.62442360703727</v>
       </c>
       <c r="I91">
-        <v>7.254768177938218E-08</v>
+        <v>7.254768177938003E-08</v>
       </c>
       <c r="J91">
-        <v>1.517995597568548E-08</v>
+        <v>1.517995597568527E-08</v>
       </c>
       <c r="K91">
-        <v>4.043748348040612E-05</v>
+        <v>4.043748348040653E-05</v>
       </c>
       <c r="L91">
-        <v>0.05261884012805233</v>
+        <v>0.05261884012805271</v>
       </c>
       <c r="M91">
-        <v>355.833236877015</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.0526176329739822</v>
+      </c>
+      <c r="N91">
+        <v>355.8332368770173</v>
+      </c>
+      <c r="O91">
+        <v>1.207154070500677E-06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>122.5202626751719</v>
+        <v>122.5202626751715</v>
       </c>
       <c r="B92">
-        <v>2951379.913966806</v>
+        <v>2951379.913966767</v>
       </c>
       <c r="C92">
-        <v>5539.292442593191</v>
+        <v>5539.292442593166</v>
       </c>
       <c r="D92">
-        <v>17772.63188514845</v>
+        <v>17772.63188514868</v>
       </c>
       <c r="E92">
-        <v>2245.774790074434</v>
+        <v>2245.77479007448</v>
       </c>
       <c r="F92">
-        <v>1879.029872469505</v>
+        <v>1879.029872469549</v>
       </c>
       <c r="G92">
-        <v>6.019230726690744</v>
+        <v>6.019230726690693</v>
       </c>
       <c r="H92">
-        <v>104.1375049001973</v>
+        <v>104.1375049001909</v>
       </c>
       <c r="I92">
-        <v>8.471778583016788E-08</v>
+        <v>8.471778583015856E-08</v>
       </c>
       <c r="J92">
-        <v>1.583030707368998E-08</v>
+        <v>1.583030707368955E-08</v>
       </c>
       <c r="K92">
-        <v>3.886191567986431E-05</v>
+        <v>3.886191567986536E-05</v>
       </c>
       <c r="L92">
-        <v>0.05118573003383627</v>
+        <v>0.0511857300338372</v>
       </c>
       <c r="M92">
-        <v>343.2606968414495</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.05118449522134508</v>
+      </c>
+      <c r="N92">
+        <v>343.2606968414582</v>
+      </c>
+      <c r="O92">
+        <v>1.234812492117313E-06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>123.3696295228268</v>
+        <v>123.3696295228263</v>
       </c>
       <c r="B93">
-        <v>3078678.352155588</v>
+        <v>3078678.352155549</v>
       </c>
       <c r="C93">
-        <v>5918.760630491566</v>
+        <v>5918.760630491517</v>
       </c>
       <c r="D93">
-        <v>17406.34135209932</v>
+        <v>17406.3413520995</v>
       </c>
       <c r="E93">
-        <v>2094.160931979748</v>
+        <v>2094.160931979799</v>
       </c>
       <c r="F93">
-        <v>1750.876094463222</v>
+        <v>1750.876094463269</v>
       </c>
       <c r="G93">
-        <v>6.092642511111958</v>
+        <v>6.092642511111923</v>
       </c>
       <c r="H93">
-        <v>114.7162134927721</v>
+        <v>114.7162134927672</v>
       </c>
       <c r="I93">
-        <v>1.004437910986378E-07</v>
+        <v>1.004437910986298E-07</v>
       </c>
       <c r="J93">
-        <v>1.653220168642158E-08</v>
+        <v>1.653220168642123E-08</v>
       </c>
       <c r="K93">
-        <v>3.728898927122905E-05</v>
+        <v>3.72889892712298E-05</v>
       </c>
       <c r="L93">
-        <v>0.04977009478098914</v>
+        <v>0.04977009478098983</v>
       </c>
       <c r="M93">
-        <v>330.4975457852377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.04976883158035178</v>
+      </c>
+      <c r="N93">
+        <v>330.4975457852437</v>
+      </c>
+      <c r="O93">
+        <v>1.263200638050739E-06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>124.2189963704816</v>
+        <v>124.2189963704811</v>
       </c>
       <c r="B94">
-        <v>3209967.174007619</v>
+        <v>3209967.174007594</v>
       </c>
       <c r="C94">
-        <v>6326.327268168886</v>
+        <v>6326.327268169003</v>
       </c>
       <c r="D94">
-        <v>17019.86465079739</v>
+        <v>17019.86465079775</v>
       </c>
       <c r="E94">
-        <v>1935.593256806877</v>
+        <v>1935.593256806894</v>
       </c>
       <c r="F94">
-        <v>1616.796256403016</v>
+        <v>1616.796256403041</v>
       </c>
       <c r="G94">
-        <v>6.178334033439967</v>
+        <v>6.17833403343984</v>
       </c>
       <c r="H94">
-        <v>128.2514148566713</v>
+        <v>128.2514148566563</v>
       </c>
       <c r="I94">
-        <v>1.213852900279872E-07</v>
+        <v>1.213852900279641E-07</v>
       </c>
       <c r="J94">
-        <v>1.729520105896217E-08</v>
+        <v>1.729520105896148E-08</v>
       </c>
       <c r="K94">
-        <v>3.571240124791846E-05</v>
+        <v>3.571240124791988E-05</v>
       </c>
       <c r="L94">
-        <v>0.04836863486116465</v>
+        <v>0.04836863486116586</v>
       </c>
       <c r="M94">
-        <v>317.5134537103397</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.04836734246491559</v>
+      </c>
+      <c r="N94">
+        <v>317.5134537103523</v>
+      </c>
+      <c r="O94">
+        <v>1.292396250266492E-06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>125.0683632181364</v>
+        <v>125.068363218136</v>
       </c>
       <c r="B95">
-        <v>3345170.166746766</v>
+        <v>3345170.166746613</v>
       </c>
       <c r="C95">
-        <v>6764.028646613065</v>
+        <v>6764.028646612208</v>
       </c>
       <c r="D95">
-        <v>16608.88060373943</v>
+        <v>16608.88060373946</v>
       </c>
       <c r="E95">
-        <v>1769.404568948306</v>
+        <v>1769.404568948513</v>
       </c>
       <c r="F95">
-        <v>1476.260168114622</v>
+        <v>1476.26016811478</v>
       </c>
       <c r="G95">
-        <v>6.278415863359235</v>
+        <v>6.278415863359275</v>
       </c>
       <c r="H95">
-        <v>146.229477394265</v>
+        <v>146.229477394268</v>
       </c>
       <c r="I95">
-        <v>1.503760032155064E-07</v>
+        <v>1.503760032155092E-07</v>
       </c>
       <c r="J95">
-        <v>1.813257517739831E-08</v>
+        <v>1.813257517739821E-08</v>
       </c>
       <c r="K95">
-        <v>3.412328835081656E-05</v>
+        <v>3.412328835081664E-05</v>
       </c>
       <c r="L95">
-        <v>0.04697502086064157</v>
+        <v>0.04697502086064173</v>
       </c>
       <c r="M95">
-        <v>304.2641935274193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.04697369834876537</v>
+      </c>
+      <c r="N95">
+        <v>304.2641935274186</v>
+      </c>
+      <c r="O95">
+        <v>1.322511876360586E-06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>125.9177300657913</v>
+        <v>125.9177300657908</v>
       </c>
       <c r="B96">
-        <v>3484167.27803886</v>
+        <v>3484167.27803872</v>
       </c>
       <c r="C96">
-        <v>7235.714795783328</v>
+        <v>7235.714795782587</v>
       </c>
       <c r="D96">
-        <v>16167.004008203</v>
+        <v>16167.00400820315</v>
       </c>
       <c r="E96">
-        <v>1594.170935340034</v>
+        <v>1594.170935340222</v>
       </c>
       <c r="F96">
-        <v>1328.158362090824</v>
+        <v>1328.158362090972</v>
       </c>
       <c r="G96">
-        <v>6.39584929169733</v>
+        <v>6.39584929169732</v>
       </c>
       <c r="H96">
-        <v>171.3290513766909</v>
+        <v>171.3290513766848</v>
       </c>
       <c r="I96">
-        <v>1.926527975018373E-07</v>
+        <v>1.926527975018253E-07</v>
       </c>
       <c r="J96">
-        <v>1.906368108046838E-08</v>
+        <v>1.906368108046804E-08</v>
       </c>
       <c r="K96">
-        <v>3.250858781118186E-05</v>
+        <v>3.250858781118237E-05</v>
       </c>
       <c r="L96">
-        <v>0.04557842367402398</v>
+        <v>0.04557842367402447</v>
       </c>
       <c r="M96">
-        <v>290.6832006834897</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.04557706995645785</v>
+      </c>
+      <c r="N96">
+        <v>290.683200683493</v>
+      </c>
+      <c r="O96">
+        <v>1.353717566623726E-06</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>126.7670969134461</v>
+        <v>126.7670969134456</v>
       </c>
       <c r="B97">
-        <v>3626802.244026848</v>
+        <v>3626802.244026721</v>
       </c>
       <c r="C97">
-        <v>7748.939726736099</v>
+        <v>7748.939726735379</v>
       </c>
       <c r="D97">
-        <v>15684.2218409254</v>
+        <v>15684.22184092542</v>
       </c>
       <c r="E97">
-        <v>1407.084736192616</v>
+        <v>1407.084736192771</v>
       </c>
       <c r="F97">
-        <v>1170.285123432914</v>
+        <v>1170.285123433031</v>
       </c>
       <c r="G97">
-        <v>6.535055288716777</v>
+        <v>6.535055288716922</v>
       </c>
       <c r="H97">
-        <v>208.9144335323639</v>
+        <v>208.9144335323831</v>
       </c>
       <c r="I97">
-        <v>2.589967879208262E-07</v>
+        <v>2.589967879208506E-07</v>
       </c>
       <c r="J97">
-        <v>2.011865743142471E-08</v>
+        <v>2.011865743142461E-08</v>
       </c>
       <c r="K97">
-        <v>3.084785367414052E-05</v>
+        <v>3.084785367414055E-05</v>
       </c>
       <c r="L97">
-        <v>0.04416073625937062</v>
+        <v>0.04416073625937075</v>
       </c>
       <c r="M97">
-        <v>276.6655511080033</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.04415934997489584</v>
+      </c>
+      <c r="N97">
+        <v>276.6655511080005</v>
+      </c>
+      <c r="O97">
+        <v>1.386284474916322E-06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>127.6164637611009</v>
+        <v>127.6164637611004</v>
       </c>
       <c r="B98">
-        <v>3772893.696998045</v>
+        <v>3772893.696997819</v>
       </c>
       <c r="C98">
-        <v>8318.728973594394</v>
+        <v>8318.72897359235</v>
       </c>
       <c r="D98">
-        <v>15143.39776617013</v>
+        <v>15143.39776616969</v>
       </c>
       <c r="E98">
-        <v>1202.696633752604</v>
+        <v>1202.696633752954</v>
       </c>
       <c r="F98">
-        <v>998.2990096055642</v>
+        <v>998.2990096058229</v>
       </c>
       <c r="G98">
-        <v>6.703226076377789</v>
+        <v>6.703226076378156</v>
       </c>
       <c r="H98">
-        <v>271.5204615020042</v>
+        <v>271.5204615021376</v>
       </c>
       <c r="I98">
-        <v>3.753901892760646E-07</v>
+        <v>3.753901892762871E-07</v>
       </c>
       <c r="J98">
-        <v>2.134899308229027E-08</v>
+        <v>2.134899308229113E-08</v>
       </c>
       <c r="K98">
-        <v>2.910613373712549E-05</v>
+        <v>2.910613373712403E-05</v>
       </c>
       <c r="L98">
-        <v>0.04269050002225811</v>
+        <v>0.04269050002225723</v>
       </c>
       <c r="M98">
-        <v>262.0324037882103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.04268907934080197</v>
+      </c>
+      <c r="N98">
+        <v>262.0324037881928</v>
+      </c>
+      <c r="O98">
+        <v>1.420681455264479E-06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>128.4658306087558</v>
+        <v>128.4658306087553</v>
       </c>
       <c r="B99">
-        <v>3922247.344240228</v>
+        <v>3922247.344240435</v>
       </c>
       <c r="C99">
-        <v>8977.299356817528</v>
+        <v>8977.299356822168</v>
       </c>
       <c r="D99">
-        <v>14510.70969735205</v>
+        <v>14510.70969735503</v>
       </c>
       <c r="E99">
-        <v>969.6050959096858</v>
+        <v>969.6050959092357</v>
       </c>
       <c r="F99">
-        <v>802.9980001790043</v>
+        <v>802.9980001787139</v>
       </c>
       <c r="G99">
-        <v>6.913771657292195</v>
+        <v>6.913771657290518</v>
       </c>
       <c r="H99">
-        <v>396.8146076211279</v>
+        <v>396.8146076199255</v>
       </c>
       <c r="I99">
-        <v>6.227560736206665E-07</v>
+        <v>6.227560736183826E-07</v>
       </c>
       <c r="J99">
-        <v>2.285661396640406E-08</v>
+        <v>2.285661396639726E-08</v>
       </c>
       <c r="K99">
-        <v>2.721440162052086E-05</v>
+        <v>2.721440162052972E-05</v>
       </c>
       <c r="L99">
-        <v>0.04110666676115118</v>
+        <v>0.04110666676115755</v>
       </c>
       <c r="M99">
-        <v>246.4331752630465</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.04110520892250085</v>
+      </c>
+      <c r="N99">
+        <v>246.4331752631327</v>
+      </c>
+      <c r="O99">
+        <v>1.457838656693781E-06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>129.3151974564106</v>
+        <v>129.3151974564101</v>
       </c>
       <c r="B100">
-        <v>4074667.099561644</v>
+        <v>4074667.099561762</v>
       </c>
       <c r="C100">
-        <v>9811.695307219401</v>
+        <v>9811.695307225409</v>
       </c>
       <c r="D100">
-        <v>13698.05146145652</v>
+        <v>13698.05146146121</v>
       </c>
       <c r="E100">
-        <v>677.4873432500227</v>
+        <v>677.4873432496505</v>
       </c>
       <c r="F100">
-        <v>559.6638529250038</v>
+        <v>559.6638529247798</v>
       </c>
       <c r="G100">
-        <v>7.199262678706117</v>
+        <v>7.199262678703685</v>
       </c>
       <c r="H100">
-        <v>773.4976983487302</v>
+        <v>773.4976983433208</v>
       </c>
       <c r="I100">
-        <v>1.425474179969048E-06</v>
+        <v>1.425474179957704E-06</v>
       </c>
       <c r="J100">
-        <v>2.490901616217737E-08</v>
+        <v>2.490901616216571E-08</v>
       </c>
       <c r="K100">
-        <v>2.499222955439465E-05</v>
+        <v>2.49922295544072E-05</v>
       </c>
       <c r="L100">
-        <v>0.03925639287032242</v>
+        <v>0.03925639287033149</v>
       </c>
       <c r="M100">
-        <v>228.9568567322267</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.03925489268496827</v>
+      </c>
+      <c r="N100">
+        <v>228.9568567323369</v>
+      </c>
+      <c r="O100">
+        <v>1.500185363221912E-06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>130.1645643040655</v>
+        <v>130.164564304065</v>
       </c>
       <c r="B101">
-        <v>4229963.015807787</v>
+        <v>4229963.015859556</v>
       </c>
       <c r="C101">
-        <v>11812.02408068786</v>
+        <v>11812.03069829061</v>
       </c>
       <c r="D101">
-        <v>11812.02408181407</v>
+        <v>11812.03069777925</v>
       </c>
       <c r="E101">
-        <v>1.950708807451387E-07</v>
+        <v>-8.857427382841501E-08</v>
       </c>
       <c r="F101">
-        <v>1.60927979162259E-07</v>
+        <v>-7.307124516629474E-08</v>
       </c>
       <c r="G101">
-        <v>7.848743034068908</v>
+        <v>7.848740971731209</v>
       </c>
       <c r="H101">
-        <v>4105985.569814543</v>
+        <v>4100289.050451218</v>
       </c>
       <c r="I101">
-        <v>0.0108093335317823</v>
+        <v>0.01079432402839917</v>
       </c>
       <c r="J101">
-        <v>3.027050022264448E-08</v>
+        <v>3.027047967911151E-08</v>
       </c>
       <c r="K101">
-        <v>2.058989903254008E-05</v>
+        <v>2.058991288823213E-05</v>
       </c>
       <c r="L101">
-        <v>0.0356810730682601</v>
+        <v>0.03568108378962633</v>
       </c>
       <c r="M101">
-        <v>200.2072888219815</v>
+        <v>0.0356795112479338</v>
+      </c>
+      <c r="N101">
+        <v>200.2073611646162</v>
+      </c>
+      <c r="O101">
+        <v>1.572541692530393E-06</v>
       </c>
     </row>
   </sheetData>
